--- a/Networks/Parte4/errors.xlsx
+++ b/Networks/Parte4/errors.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60144.56088998979</v>
+        <v>41889.5398268461</v>
       </c>
       <c r="C2" t="n">
-        <v>59719.91983440019</v>
+        <v>40553.55059189648</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49870.4265712633</v>
+        <v>43758.0098421849</v>
       </c>
       <c r="C3" t="n">
-        <v>50004.92095565449</v>
+        <v>43451.82356447168</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>51995.28204428616</v>
+        <v>32773.19673462519</v>
       </c>
       <c r="C4" t="n">
-        <v>50976.17598103223</v>
+        <v>33051.46540788454</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64414.07171089586</v>
+        <v>30643.99515746508</v>
       </c>
       <c r="C5" t="n">
-        <v>64654.35033553829</v>
+        <v>29740.08223389685</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,505 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50588.52438570299</v>
+        <v>31444.14920608733</v>
       </c>
       <c r="C6" t="n">
-        <v>51905.30543648932</v>
+        <v>30548.40589753292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>28492.90874829607</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27437.17188923652</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27129.22343754307</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27521.91009344244</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30091.1363126643</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29363.31411370659</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>26377.42351702454</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26198.34972569426</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26271.33372415965</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27176.5509877965</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25415.46776875693</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25105.20152558834</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28185.14964834904</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27786.56776071326</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28148.85327344499</v>
+      </c>
+      <c r="C14" t="n">
+        <v>28095.39914379585</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>23739.72917814586</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24208.38071035857</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25777.28836708528</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25353.61767763052</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24966.0534113392</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25382.01793442731</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24161.26378937815</v>
+      </c>
+      <c r="C18" t="n">
+        <v>24291.11043812337</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25316.86218473403</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24948.12456589368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>27892.6645992702</v>
+      </c>
+      <c r="C20" t="n">
+        <v>27688.53022348434</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>26126.97555341799</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26792.49525576572</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22132.31861598675</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22480.04461328123</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22246.43355623172</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22657.69397555425</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22400.46636006388</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22775.05939705857</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>21809.25772168427</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22202.99222746096</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>21564.97796045528</v>
+      </c>
+      <c r="C26" t="n">
+        <v>22142.44370326208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>21691.58568292307</v>
+      </c>
+      <c r="C27" t="n">
+        <v>21947.17806360097</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>22960.21232420182</v>
+      </c>
+      <c r="C28" t="n">
+        <v>22343.16656086992</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20688.15405596976</v>
+      </c>
+      <c r="C29" t="n">
+        <v>21299.5179064769</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>21726.38703033686</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22009.86923443744</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20820.19565751274</v>
+      </c>
+      <c r="C31" t="n">
+        <v>21279.93966519372</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20982.64851362089</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21130.94863174362</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20102.9152801688</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20365.88195839623</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>21744.64657205417</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22223.87495893999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>19689.81129619179</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20876.95143170699</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19967.70624924881</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19665.39947107766</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>21135.7592337414</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21819.72978049148</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19316.55023391499</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20148.7034142368</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20148.89320556255</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20203.13210072948</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19714.99943949661</v>
+      </c>
+      <c r="C40" t="n">
+        <v>20325.28832057955</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19292.50544866747</v>
+      </c>
+      <c r="C41" t="n">
+        <v>20102.63386672797</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20784.99814715582</v>
+      </c>
+      <c r="C42" t="n">
+        <v>20463.19374312752</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19667.20318062931</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20507.95964767766</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19265.13614139046</v>
+      </c>
+      <c r="C44" t="n">
+        <v>19885.65613640521</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>19754.68575984908</v>
+      </c>
+      <c r="C45" t="n">
+        <v>19598.37428899203</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19388.0479243872</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19003.91177098804</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>18334.12447730237</v>
+      </c>
+      <c r="C47" t="n">
+        <v>18956.90922329538</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20793.58821143893</v>
+      </c>
+      <c r="C48" t="n">
+        <v>21451.44423583072</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20552.88950796299</v>
+      </c>
+      <c r="C49" t="n">
+        <v>21886.00737335255</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>18910.47666533411</v>
+      </c>
+      <c r="C50" t="n">
+        <v>19332.28359267856</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>21135.07882728804</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20473.28108223878</v>
       </c>
     </row>
   </sheetData>
@@ -516,7 +1011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>46816.60194983931</v>
+        <v>29131.85343003377</v>
       </c>
       <c r="C2" t="n">
-        <v>45533.90437061459</v>
+        <v>28264.04995345449</v>
       </c>
     </row>
     <row r="3">
@@ -552,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38696.85746767568</v>
+        <v>24349.76198380844</v>
       </c>
       <c r="C3" t="n">
-        <v>38167.18698800778</v>
+        <v>24092.97224607261</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +1058,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31945.03418782047</v>
+        <v>21583.7076122085</v>
       </c>
       <c r="C4" t="n">
-        <v>33030.31748034117</v>
+        <v>21079.05923221109</v>
       </c>
     </row>
     <row r="5">
@@ -574,10 +1069,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33254.62621901726</v>
+        <v>21457.86579544317</v>
       </c>
       <c r="C5" t="n">
-        <v>33486.3772223284</v>
+        <v>21319.61450091871</v>
       </c>
     </row>
     <row r="6">
@@ -585,10 +1080,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31605.90538595227</v>
+        <v>18274.61872987987</v>
       </c>
       <c r="C6" t="n">
-        <v>30892.16390474778</v>
+        <v>18445.7658338345</v>
       </c>
     </row>
     <row r="7">
@@ -596,10 +1091,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28015.13096767175</v>
+        <v>18319.05201271739</v>
       </c>
       <c r="C7" t="n">
-        <v>27171.54268130233</v>
+        <v>18242.56676592245</v>
       </c>
     </row>
     <row r="8">
@@ -607,10 +1102,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27813.55343877103</v>
+        <v>17535.55003727547</v>
       </c>
       <c r="C8" t="n">
-        <v>27762.19923502898</v>
+        <v>17780.39847363643</v>
       </c>
     </row>
     <row r="9">
@@ -618,10 +1113,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24462.67151609582</v>
+        <v>16783.31158869156</v>
       </c>
       <c r="C9" t="n">
-        <v>24977.82351476395</v>
+        <v>16962.17537025571</v>
       </c>
     </row>
     <row r="10">
@@ -629,10 +1124,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27334.20033894198</v>
+        <v>16061.79436526895</v>
       </c>
       <c r="C10" t="n">
-        <v>28129.56745277377</v>
+        <v>16556.052882164</v>
       </c>
     </row>
     <row r="11">
@@ -640,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24995.76323253299</v>
+        <v>16318.14403398284</v>
       </c>
       <c r="C11" t="n">
-        <v>26110.21782230812</v>
+        <v>16513.3480796915</v>
       </c>
     </row>
     <row r="12">
@@ -651,10 +1146,439 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25621.46471090432</v>
+        <v>15891.91509117894</v>
       </c>
       <c r="C12" t="n">
-        <v>27005.0141205152</v>
+        <v>16480.11850393449</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15413.41215233267</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15967.94449527931</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14310.24198632207</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14722.30952509199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14527.36549659014</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15003.79028656596</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14949.73529788031</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15429.01405998111</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14283.73550349011</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14569.83214030982</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13981.06116030985</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14095.32960997213</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14024.88431030363</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14512.96930557779</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13473.65775484111</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14222.00330562725</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13677.2827038293</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13814.0414468215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12754.35578803539</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13042.12958050234</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12403.89853372163</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13165.71684623057</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12256.3690362501</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13078.11163375973</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12296.36690551647</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12836.00988003114</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12096.72514035101</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12908.80902441808</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12834.24934955599</v>
+      </c>
+      <c r="C27" t="n">
+        <v>13275.15208743192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12691.1734497475</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13518.59088137267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12165.19351988655</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12590.73551978967</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12370.81010388529</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12724.08252759982</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>11930.91756793694</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12388.03564337073</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11294.51909667113</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11885.39301798131</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11550.45458528523</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12186.40241974941</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>11328.35951393863</v>
+      </c>
+      <c r="C34" t="n">
+        <v>11472.45159690776</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12592.82430240606</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12568.73237827941</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10963.59069197488</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11517.56184064202</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11092.22951303138</v>
+      </c>
+      <c r="C37" t="n">
+        <v>11596.54458408057</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10940.58771559722</v>
+      </c>
+      <c r="C38" t="n">
+        <v>11584.67778798364</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10713.06434000679</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11545.77958409327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10609.0087170946</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10785.0702725783</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10974.64590647243</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12089.43030316894</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10885.80933348753</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12200.48709425503</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11073.51073718237</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11399.74297126793</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10286.92485853902</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10984.68604204213</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11002.23647266658</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11637.3423687978</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10639.28760142079</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10662.01969637171</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10651.49569160757</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10943.74848493256</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10713.2002760982</v>
+      </c>
+      <c r="C48" t="n">
+        <v>11285.75383044615</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10376.26179951959</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10953.73038339707</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10425.25811836163</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11096.66055701177</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10333.34325195574</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10829.87131364724</v>
       </c>
     </row>
   </sheetData>
@@ -693,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>456689.7822688438</v>
+        <v>86429.97290190939</v>
       </c>
       <c r="C2" t="n">
-        <v>469982.1269995197</v>
+        <v>84891.56353228628</v>
       </c>
     </row>
     <row r="3">
@@ -704,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>393082.2675426208</v>
+        <v>90817.62008532131</v>
       </c>
       <c r="C3" t="n">
-        <v>404519.8799802723</v>
+        <v>92043.67307220456</v>
       </c>
     </row>
     <row r="4">
@@ -715,10 +1639,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>591675.2858640867</v>
+        <v>117582.3480336723</v>
       </c>
       <c r="C4" t="n">
-        <v>610331.6831574941</v>
+        <v>120928.9929894768</v>
       </c>
     </row>
     <row r="5">
@@ -726,10 +1650,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386092.5891361344</v>
+        <v>94493.08832478929</v>
       </c>
       <c r="C5" t="n">
-        <v>397362.7372958812</v>
+        <v>98762.54407401834</v>
       </c>
     </row>
     <row r="6">
@@ -737,10 +1661,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>391879.9349818731</v>
+        <v>101932.0171108876</v>
       </c>
       <c r="C6" t="n">
-        <v>404434.2018003649</v>
+        <v>99711.33666028237</v>
       </c>
     </row>
     <row r="7">
@@ -748,10 +1672,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382353.6569676111</v>
+        <v>136388.2798487719</v>
       </c>
       <c r="C7" t="n">
-        <v>394649.9175052371</v>
+        <v>139643.39268793</v>
       </c>
     </row>
     <row r="8">
@@ -759,10 +1683,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373062.8490253644</v>
+        <v>113539.0145422931</v>
       </c>
       <c r="C8" t="n">
-        <v>385836.5390922608</v>
+        <v>113750.481971574</v>
       </c>
     </row>
     <row r="9">
@@ -770,10 +1694,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>342517.3506320736</v>
+        <v>108904.0097604544</v>
       </c>
       <c r="C9" t="n">
-        <v>346368.8216352171</v>
+        <v>109141.060083447</v>
       </c>
     </row>
     <row r="10">
@@ -781,10 +1705,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>358811.1356002892</v>
+        <v>96795.08446958978</v>
       </c>
       <c r="C10" t="n">
-        <v>367074.1899645132</v>
+        <v>95534.26719497322</v>
       </c>
     </row>
     <row r="11">
@@ -792,10 +1716,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365802.5876918513</v>
+        <v>108100.9642649426</v>
       </c>
       <c r="C11" t="n">
-        <v>375904.8478724743</v>
+        <v>103666.4041159765</v>
       </c>
     </row>
     <row r="12">
@@ -803,10 +1727,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>365781.3857579816</v>
+        <v>98535.27018622438</v>
       </c>
       <c r="C12" t="n">
-        <v>375903.3701853477</v>
+        <v>99076.59416402898</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +1744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>613019.4694213163</v>
+        <v>40992.9073419445</v>
       </c>
       <c r="C2" t="n">
-        <v>635825.6723762772</v>
+        <v>42366.12808645854</v>
       </c>
     </row>
     <row r="3">
@@ -856,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>367727.5071122859</v>
+        <v>40328.00503610123</v>
       </c>
       <c r="C3" t="n">
-        <v>372398.7379856405</v>
+        <v>40266.92978112032</v>
       </c>
     </row>
     <row r="4">
@@ -867,10 +1791,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>567363.0013546803</v>
+        <v>50820.63859612417</v>
       </c>
       <c r="C4" t="n">
-        <v>585036.6119102284</v>
+        <v>51363.63548847713</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +1802,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>307140.6750156028</v>
+        <v>65173.95391938149</v>
       </c>
       <c r="C5" t="n">
-        <v>308380.6334853962</v>
+        <v>65859.02212419272</v>
       </c>
     </row>
     <row r="6">
@@ -889,10 +1813,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427754.5399645541</v>
+        <v>77417.05430081241</v>
       </c>
       <c r="C6" t="n">
-        <v>442582.1618750214</v>
+        <v>76038.10435606589</v>
       </c>
     </row>
     <row r="7">
@@ -900,10 +1824,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>497818.5091022502</v>
+        <v>57290.55785615681</v>
       </c>
       <c r="C7" t="n">
-        <v>517972.4522948038</v>
+        <v>58519.42172752819</v>
       </c>
     </row>
     <row r="8">
@@ -911,10 +1835,65 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432248.2891968299</v>
+        <v>53990.49309771611</v>
       </c>
       <c r="C8" t="n">
-        <v>454246.5621682806</v>
+        <v>52663.0898575053</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>53185.07124008733</v>
+      </c>
+      <c r="C9" t="n">
+        <v>53478.86402316931</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>67330.87640944983</v>
+      </c>
+      <c r="C10" t="n">
+        <v>68037.86299655552</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57531.13787154851</v>
+      </c>
+      <c r="C11" t="n">
+        <v>56348.43189730779</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>61920.13400413357</v>
+      </c>
+      <c r="C12" t="n">
+        <v>63412.9958253526</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>61149.21535468793</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60541.88454302677</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30075.84364714983</v>
+        <v>23160.35278020404</v>
       </c>
       <c r="C2" t="n">
-        <v>30097.51368301337</v>
+        <v>23006.00473017646</v>
       </c>
     </row>
     <row r="3">
@@ -964,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24643.20064355958</v>
+        <v>18642.76882456535</v>
       </c>
       <c r="C3" t="n">
-        <v>25091.39684596916</v>
+        <v>18653.0545854134</v>
       </c>
     </row>
     <row r="4">
@@ -975,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24337.71066353216</v>
+        <v>16980.77190264043</v>
       </c>
       <c r="C4" t="n">
-        <v>24894.5368218367</v>
+        <v>16940.2995473699</v>
       </c>
     </row>
     <row r="5">
@@ -986,10 +1965,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19458.23488111486</v>
+        <v>15706.17788240899</v>
       </c>
       <c r="C5" t="n">
-        <v>19449.24247745347</v>
+        <v>16026.21490391566</v>
       </c>
     </row>
     <row r="6">
@@ -997,10 +1976,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18600.02133226714</v>
+        <v>14983.30890334163</v>
       </c>
       <c r="C6" t="n">
-        <v>18719.97398855616</v>
+        <v>15383.24790952311</v>
       </c>
     </row>
     <row r="7">
@@ -1008,10 +1987,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15816.77151956187</v>
+        <v>14049.56908492947</v>
       </c>
       <c r="C7" t="n">
-        <v>16089.31535591261</v>
+        <v>14351.28684220962</v>
       </c>
     </row>
     <row r="8">
@@ -1019,10 +1998,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17790.90790014821</v>
+        <v>13247.96400232506</v>
       </c>
       <c r="C8" t="n">
-        <v>17835.15395340615</v>
+        <v>13610.38563624073</v>
       </c>
     </row>
     <row r="9">
@@ -1030,10 +2009,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16129.86854877116</v>
+        <v>12374.69886419948</v>
       </c>
       <c r="C9" t="n">
-        <v>16693.03157288212</v>
+        <v>12849.40478826741</v>
       </c>
     </row>
     <row r="10">
@@ -1041,10 +2020,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13772.104942733</v>
+        <v>11831.68609657802</v>
       </c>
       <c r="C10" t="n">
-        <v>14387.41374814779</v>
+        <v>12443.69504947795</v>
       </c>
     </row>
     <row r="11">
@@ -1052,10 +2031,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15015.65527387057</v>
+        <v>11766.77413607215</v>
       </c>
       <c r="C11" t="n">
-        <v>15916.08079131679</v>
+        <v>12283.75014343856</v>
       </c>
     </row>
     <row r="12">
@@ -1063,10 +2042,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16267.61630035662</v>
+        <v>11165.64611692677</v>
       </c>
       <c r="C12" t="n">
-        <v>17139.87736293699</v>
+        <v>11532.62614564401</v>
       </c>
     </row>
     <row r="13">
@@ -1074,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13607.53300925918</v>
+        <v>11120.57507038061</v>
       </c>
       <c r="C13" t="n">
-        <v>14301.1181518274</v>
+        <v>11583.61605164569</v>
       </c>
     </row>
     <row r="14">
@@ -1085,10 +2064,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14579.36962652534</v>
+        <v>10417.90653155928</v>
       </c>
       <c r="C14" t="n">
-        <v>15384.35439404247</v>
+        <v>10621.05115763477</v>
       </c>
     </row>
     <row r="15">
@@ -1096,10 +2075,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13126.69511660544</v>
+        <v>10422.45744704273</v>
       </c>
       <c r="C15" t="n">
-        <v>13339.86211129999</v>
+        <v>10890.3268330897</v>
       </c>
     </row>
     <row r="16">
@@ -1107,10 +2086,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15163.20868867813</v>
+        <v>9623.11135130494</v>
       </c>
       <c r="C16" t="n">
-        <v>16010.23567888927</v>
+        <v>10082.86736621593</v>
       </c>
     </row>
     <row r="17">
@@ -1118,10 +2097,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15832.6366703261</v>
+        <v>9455.756963534479</v>
       </c>
       <c r="C17" t="n">
-        <v>16446.47066249477</v>
+        <v>10020.85501286435</v>
       </c>
     </row>
     <row r="18">
@@ -1129,10 +2108,373 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16739.27098180692</v>
+        <v>9707.848947783346</v>
       </c>
       <c r="C18" t="n">
-        <v>17250.7819925423</v>
+        <v>10066.61259211936</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9291.332251321133</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9912.720225983563</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8783.199299244503</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9671.279031608296</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8709.112904263897</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9422.889375645784</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8517.302887320222</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9137.899782641942</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8282.025548985348</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9119.658510618925</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8005.662248826447</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8538.891791549748</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8034.620634640256</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8510.806179287803</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7773.689176362285</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8130.967858353084</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7773.122161628879</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8777.814725397158</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7778.047464492938</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8263.328774210033</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7273.622535450761</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8008.765414691967</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6976.192698777227</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7517.030157989961</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7275.071774870311</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7811.464905133294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6817.37428294491</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7600.717107191721</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6833.824894420084</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7582.694644748133</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7086.98409983959</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7659.242797662509</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7184.954189160171</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7920.509550588612</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6742.856950851458</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7626.986362804538</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7100.417276558161</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7587.36215647358</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6832.155004283039</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7511.836108343405</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6527.464799435259</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7298.886925124754</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6694.937961367568</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7462.94333272432</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6622.289992683474</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7337.510868394395</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6094.797906399361</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6738.260204767085</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6413.466996576248</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7031.61286336349</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6363.239656244201</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7240.822790721261</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6056.227188348132</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6851.204370646508</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6162.501606244444</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6901.511115067896</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6160.852839055431</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6816.368442683583</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5940.481015589777</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6660.99528211439</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6167.673459897032</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6827.13774704088</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6109.894243305676</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6661.354290927822</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5904.638135415174</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6873.095507036349</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte4/errors.xlsx
+++ b/Networks/Parte4/errors.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41889.5398268461</v>
+        <v>44442.26103612454</v>
       </c>
       <c r="C2" t="n">
-        <v>40553.55059189648</v>
+        <v>45267.17728746407</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>43758.0098421849</v>
+        <v>35196.7877563959</v>
       </c>
       <c r="C3" t="n">
-        <v>43451.82356447168</v>
+        <v>34960.1179956117</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32773.19673462519</v>
+        <v>35582.38396861688</v>
       </c>
       <c r="C4" t="n">
-        <v>33051.46540788454</v>
+        <v>35628.14114031639</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30643.99515746508</v>
+        <v>32251.45255378106</v>
       </c>
       <c r="C5" t="n">
-        <v>29740.08223389685</v>
+        <v>31912.67254712832</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31444.14920608733</v>
+        <v>29572.70928826216</v>
       </c>
       <c r="C6" t="n">
-        <v>30548.40589753292</v>
+        <v>29258.97491085083</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28492.90874829607</v>
+        <v>28767.04247438117</v>
       </c>
       <c r="C7" t="n">
-        <v>27437.17188923652</v>
+        <v>28351.15266634413</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27129.22343754307</v>
+        <v>27993.73076130836</v>
       </c>
       <c r="C8" t="n">
-        <v>27521.91009344244</v>
+        <v>27783.77311740517</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30091.1363126643</v>
+        <v>25802.12401212293</v>
       </c>
       <c r="C9" t="n">
-        <v>29363.31411370659</v>
+        <v>26034.36786145051</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26377.42351702454</v>
+        <v>26312.58595484761</v>
       </c>
       <c r="C10" t="n">
-        <v>26198.34972569426</v>
+        <v>25935.01252580972</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26271.33372415965</v>
+        <v>25589.13037767369</v>
       </c>
       <c r="C11" t="n">
-        <v>27176.5509877965</v>
+        <v>26163.58600441234</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25415.46776875693</v>
+        <v>24619.33971399062</v>
       </c>
       <c r="C12" t="n">
-        <v>25105.20152558834</v>
+        <v>24271.75548628618</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28185.14964834904</v>
+        <v>25255.47169537591</v>
       </c>
       <c r="C13" t="n">
-        <v>27786.56776071326</v>
+        <v>25235.15141172805</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28148.85327344499</v>
+        <v>24350.21412038056</v>
       </c>
       <c r="C14" t="n">
-        <v>28095.39914379585</v>
+        <v>25202.90502799169</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23739.72917814586</v>
+        <v>22009.63055504533</v>
       </c>
       <c r="C15" t="n">
-        <v>24208.38071035857</v>
+        <v>22069.11872568725</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25777.28836708528</v>
+        <v>22331.6927083661</v>
       </c>
       <c r="C16" t="n">
-        <v>25353.61767763052</v>
+        <v>21915.97016756082</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24966.0534113392</v>
+        <v>22085.40392644425</v>
       </c>
       <c r="C17" t="n">
-        <v>25382.01793442731</v>
+        <v>21716.81365051534</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24161.26378937815</v>
+        <v>22923.68176585489</v>
       </c>
       <c r="C18" t="n">
-        <v>24291.11043812337</v>
+        <v>22344.26899663419</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25316.86218473403</v>
+        <v>21773.09013013103</v>
       </c>
       <c r="C19" t="n">
-        <v>24948.12456589368</v>
+        <v>21998.0419444682</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27892.6645992702</v>
+        <v>23771.7454537904</v>
       </c>
       <c r="C20" t="n">
-        <v>27688.53022348434</v>
+        <v>23553.90737971442</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26126.97555341799</v>
+        <v>21934.31259165825</v>
       </c>
       <c r="C21" t="n">
-        <v>26792.49525576572</v>
+        <v>21320.66246809138</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22132.31861598675</v>
+        <v>22793.19751789935</v>
       </c>
       <c r="C22" t="n">
-        <v>22480.04461328123</v>
+        <v>22572.31384294219</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22246.43355623172</v>
+        <v>21705.31733598472</v>
       </c>
       <c r="C23" t="n">
-        <v>22657.69397555425</v>
+        <v>21307.65954006625</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22400.46636006388</v>
+        <v>23453.71741995923</v>
       </c>
       <c r="C24" t="n">
-        <v>22775.05939705857</v>
+        <v>23678.9669974977</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21809.25772168427</v>
+        <v>21187.04719140946</v>
       </c>
       <c r="C25" t="n">
-        <v>22202.99222746096</v>
+        <v>21020.69268596594</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21564.97796045528</v>
+        <v>21717.93004016373</v>
       </c>
       <c r="C26" t="n">
-        <v>22142.44370326208</v>
+        <v>21851.63004577408</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21691.58568292307</v>
+        <v>21832.75095870612</v>
       </c>
       <c r="C27" t="n">
-        <v>21947.17806360097</v>
+        <v>21669.47590460509</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22960.21232420182</v>
+        <v>23471.75656175873</v>
       </c>
       <c r="C28" t="n">
-        <v>22343.16656086992</v>
+        <v>22876.58879800684</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20688.15405596976</v>
+        <v>23422.24001818923</v>
       </c>
       <c r="C29" t="n">
-        <v>21299.5179064769</v>
+        <v>23086.82360023177</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21726.38703033686</v>
+        <v>22943.9287853301</v>
       </c>
       <c r="C30" t="n">
-        <v>22009.86923443744</v>
+        <v>22087.89765647786</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20820.19565751274</v>
+        <v>23477.67554226789</v>
       </c>
       <c r="C31" t="n">
-        <v>21279.93966519372</v>
+        <v>22767.69774137361</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20982.64851362089</v>
+        <v>22748.09653621902</v>
       </c>
       <c r="C32" t="n">
-        <v>21130.94863174362</v>
+        <v>22674.0968152483</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20102.9152801688</v>
+        <v>22606.35587338221</v>
       </c>
       <c r="C33" t="n">
-        <v>20365.88195839623</v>
+        <v>22184.7995984331</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21744.64657205417</v>
+        <v>23635.49593727252</v>
       </c>
       <c r="C34" t="n">
-        <v>22223.87495893999</v>
+        <v>23186.92107333843</v>
       </c>
     </row>
     <row r="35">
@@ -818,186 +818,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19689.81129619179</v>
+        <v>22508.72514066036</v>
       </c>
       <c r="C35" t="n">
-        <v>20876.95143170699</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>19967.70624924881</v>
-      </c>
-      <c r="C36" t="n">
-        <v>19665.39947107766</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>21135.7592337414</v>
-      </c>
-      <c r="C37" t="n">
-        <v>21819.72978049148</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>19316.55023391499</v>
-      </c>
-      <c r="C38" t="n">
-        <v>20148.7034142368</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>20148.89320556255</v>
-      </c>
-      <c r="C39" t="n">
-        <v>20203.13210072948</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>19714.99943949661</v>
-      </c>
-      <c r="C40" t="n">
-        <v>20325.28832057955</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>19292.50544866747</v>
-      </c>
-      <c r="C41" t="n">
-        <v>20102.63386672797</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>20784.99814715582</v>
-      </c>
-      <c r="C42" t="n">
-        <v>20463.19374312752</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>19667.20318062931</v>
-      </c>
-      <c r="C43" t="n">
-        <v>20507.95964767766</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>19265.13614139046</v>
-      </c>
-      <c r="C44" t="n">
-        <v>19885.65613640521</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>19754.68575984908</v>
-      </c>
-      <c r="C45" t="n">
-        <v>19598.37428899203</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>19388.0479243872</v>
-      </c>
-      <c r="C46" t="n">
-        <v>19003.91177098804</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>18334.12447730237</v>
-      </c>
-      <c r="C47" t="n">
-        <v>18956.90922329538</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>20793.58821143893</v>
-      </c>
-      <c r="C48" t="n">
-        <v>21451.44423583072</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>20552.88950796299</v>
-      </c>
-      <c r="C49" t="n">
-        <v>21886.00737335255</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>18910.47666533411</v>
-      </c>
-      <c r="C50" t="n">
-        <v>19332.28359267856</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>21135.07882728804</v>
-      </c>
-      <c r="C51" t="n">
-        <v>20473.28108223878</v>
+        <v>22172.23233231487</v>
       </c>
     </row>
   </sheetData>
@@ -1036,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29131.85343003377</v>
+        <v>27694.66862464174</v>
       </c>
       <c r="C2" t="n">
-        <v>28264.04995345449</v>
+        <v>27420.06794658712</v>
       </c>
     </row>
     <row r="3">
@@ -1047,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24349.76198380844</v>
+        <v>22875.60123667129</v>
       </c>
       <c r="C3" t="n">
-        <v>24092.97224607261</v>
+        <v>22523.05018609215</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +882,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21583.7076122085</v>
+        <v>22528.03601688437</v>
       </c>
       <c r="C4" t="n">
-        <v>21079.05923221109</v>
+        <v>22366.62555387081</v>
       </c>
     </row>
     <row r="5">
@@ -1069,10 +893,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21457.86579544317</v>
+        <v>19603.66810576889</v>
       </c>
       <c r="C5" t="n">
-        <v>21319.61450091871</v>
+        <v>19322.13588979293</v>
       </c>
     </row>
     <row r="6">
@@ -1080,10 +904,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18274.61872987987</v>
+        <v>19947.43554310545</v>
       </c>
       <c r="C6" t="n">
-        <v>18445.7658338345</v>
+        <v>19582.24104105636</v>
       </c>
     </row>
     <row r="7">
@@ -1091,10 +915,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18319.05201271739</v>
+        <v>19230.90226071767</v>
       </c>
       <c r="C7" t="n">
-        <v>18242.56676592245</v>
+        <v>19330.06689489008</v>
       </c>
     </row>
     <row r="8">
@@ -1102,10 +926,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17535.55003727547</v>
+        <v>17881.66218984332</v>
       </c>
       <c r="C8" t="n">
-        <v>17780.39847363643</v>
+        <v>18101.91629903183</v>
       </c>
     </row>
     <row r="9">
@@ -1113,10 +937,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16783.31158869156</v>
+        <v>17288.4356985419</v>
       </c>
       <c r="C9" t="n">
-        <v>16962.17537025571</v>
+        <v>17360.73228041306</v>
       </c>
     </row>
     <row r="10">
@@ -1124,10 +948,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16061.79436526895</v>
+        <v>16413.74253484318</v>
       </c>
       <c r="C10" t="n">
-        <v>16556.052882164</v>
+        <v>16317.85066488819</v>
       </c>
     </row>
     <row r="11">
@@ -1135,10 +959,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16318.14403398284</v>
+        <v>17205.41098047776</v>
       </c>
       <c r="C11" t="n">
-        <v>16513.3480796915</v>
+        <v>17600.89007425997</v>
       </c>
     </row>
     <row r="12">
@@ -1146,10 +970,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15891.91509117894</v>
+        <v>15768.39815626526</v>
       </c>
       <c r="C12" t="n">
-        <v>16480.11850393449</v>
+        <v>16308.32340716791</v>
       </c>
     </row>
     <row r="13">
@@ -1157,10 +981,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15413.41215233267</v>
+        <v>16004.54173184612</v>
       </c>
       <c r="C13" t="n">
-        <v>15967.94449527931</v>
+        <v>16469.54233116705</v>
       </c>
     </row>
     <row r="14">
@@ -1168,10 +992,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14310.24198632207</v>
+        <v>14358.42301679974</v>
       </c>
       <c r="C14" t="n">
-        <v>14722.30952509199</v>
+        <v>14969.48685526728</v>
       </c>
     </row>
     <row r="15">
@@ -1179,10 +1003,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14527.36549659014</v>
+        <v>13911.4766541188</v>
       </c>
       <c r="C15" t="n">
-        <v>15003.79028656596</v>
+        <v>14566.6770325295</v>
       </c>
     </row>
     <row r="16">
@@ -1190,10 +1014,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14949.73529788031</v>
+        <v>13610.85014918214</v>
       </c>
       <c r="C16" t="n">
-        <v>15429.01405998111</v>
+        <v>13403.3626896451</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1025,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14283.73550349011</v>
+        <v>13682.37814985882</v>
       </c>
       <c r="C17" t="n">
-        <v>14569.83214030982</v>
+        <v>13687.01663155975</v>
       </c>
     </row>
     <row r="18">
@@ -1212,10 +1036,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13981.06116030985</v>
+        <v>13431.66970630493</v>
       </c>
       <c r="C18" t="n">
-        <v>14095.32960997213</v>
+        <v>14134.81012272623</v>
       </c>
     </row>
     <row r="19">
@@ -1223,10 +1047,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14024.88431030363</v>
+        <v>13976.5364571682</v>
       </c>
       <c r="C19" t="n">
-        <v>14512.96930557779</v>
+        <v>14169.86144903134</v>
       </c>
     </row>
     <row r="20">
@@ -1234,10 +1058,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13473.65775484111</v>
+        <v>12823.95368422394</v>
       </c>
       <c r="C20" t="n">
-        <v>14222.00330562725</v>
+        <v>13307.59873389442</v>
       </c>
     </row>
     <row r="21">
@@ -1245,10 +1069,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13677.2827038293</v>
+        <v>12874.09285317645</v>
       </c>
       <c r="C21" t="n">
-        <v>13814.0414468215</v>
+        <v>13229.02548989478</v>
       </c>
     </row>
     <row r="22">
@@ -1256,10 +1080,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12754.35578803539</v>
+        <v>12309.69918542394</v>
       </c>
       <c r="C22" t="n">
-        <v>13042.12958050234</v>
+        <v>12541.19610862084</v>
       </c>
     </row>
     <row r="23">
@@ -1267,10 +1091,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12403.89853372163</v>
+        <v>12467.12448893573</v>
       </c>
       <c r="C23" t="n">
-        <v>13165.71684623057</v>
+        <v>13062.01673359705</v>
       </c>
     </row>
     <row r="24">
@@ -1278,10 +1102,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12256.3690362501</v>
+        <v>12779.24960809045</v>
       </c>
       <c r="C24" t="n">
-        <v>13078.11163375973</v>
+        <v>13780.04203262797</v>
       </c>
     </row>
     <row r="25">
@@ -1289,10 +1113,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12296.36690551647</v>
+        <v>12416.34816645865</v>
       </c>
       <c r="C25" t="n">
-        <v>12836.00988003114</v>
+        <v>13397.24985127592</v>
       </c>
     </row>
     <row r="26">
@@ -1300,10 +1124,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12096.72514035101</v>
+        <v>12066.32754193305</v>
       </c>
       <c r="C26" t="n">
-        <v>12908.80902441808</v>
+        <v>12960.50506005981</v>
       </c>
     </row>
     <row r="27">
@@ -1311,10 +1135,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12834.24934955599</v>
+        <v>12030.44569854179</v>
       </c>
       <c r="C27" t="n">
-        <v>13275.15208743192</v>
+        <v>12754.38361464197</v>
       </c>
     </row>
     <row r="28">
@@ -1322,10 +1146,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12691.1734497475</v>
+        <v>11460.55269269712</v>
       </c>
       <c r="C28" t="n">
-        <v>13518.59088137267</v>
+        <v>12176.73451034108</v>
       </c>
     </row>
     <row r="29">
@@ -1333,10 +1157,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12165.19351988655</v>
+        <v>11684.78121094062</v>
       </c>
       <c r="C29" t="n">
-        <v>12590.73551978967</v>
+        <v>12297.28114133023</v>
       </c>
     </row>
     <row r="30">
@@ -1344,10 +1168,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12370.81010388529</v>
+        <v>11700.02373965249</v>
       </c>
       <c r="C30" t="n">
-        <v>12724.08252759982</v>
+        <v>12163.76846083841</v>
       </c>
     </row>
     <row r="31">
@@ -1355,10 +1179,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11930.91756793694</v>
+        <v>11283.95119621956</v>
       </c>
       <c r="C31" t="n">
-        <v>12388.03564337073</v>
+        <v>11301.2554299663</v>
       </c>
     </row>
     <row r="32">
@@ -1366,10 +1190,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11294.51909667113</v>
+        <v>11374.18694751905</v>
       </c>
       <c r="C32" t="n">
-        <v>11885.39301798131</v>
+        <v>11604.01093208916</v>
       </c>
     </row>
     <row r="33">
@@ -1377,10 +1201,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11550.45458528523</v>
+        <v>11793.06998578964</v>
       </c>
       <c r="C33" t="n">
-        <v>12186.40241974941</v>
+        <v>11967.46560678967</v>
       </c>
     </row>
     <row r="34">
@@ -1388,10 +1212,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11328.35951393863</v>
+        <v>11168.48621676159</v>
       </c>
       <c r="C34" t="n">
-        <v>11472.45159690776</v>
+        <v>11536.20183338816</v>
       </c>
     </row>
     <row r="35">
@@ -1399,10 +1223,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12592.82430240606</v>
+        <v>11185.75584922318</v>
       </c>
       <c r="C35" t="n">
-        <v>12568.73237827941</v>
+        <v>11438.31037772799</v>
       </c>
     </row>
     <row r="36">
@@ -1410,10 +1234,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10963.59069197488</v>
+        <v>11533.32268560962</v>
       </c>
       <c r="C36" t="n">
-        <v>11517.56184064202</v>
+        <v>11930.98080491661</v>
       </c>
     </row>
     <row r="37">
@@ -1421,10 +1245,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11092.22951303138</v>
+        <v>10844.1810716953</v>
       </c>
       <c r="C37" t="n">
-        <v>11596.54458408057</v>
+        <v>11520.99847029397</v>
       </c>
     </row>
     <row r="38">
@@ -1432,10 +1256,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10940.58771559722</v>
+        <v>10422.05856060353</v>
       </c>
       <c r="C38" t="n">
-        <v>11584.67778798364</v>
+        <v>11200.82959954494</v>
       </c>
     </row>
     <row r="39">
@@ -1443,10 +1267,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10713.06434000679</v>
+        <v>10278.3429077743</v>
       </c>
       <c r="C39" t="n">
-        <v>11545.77958409327</v>
+        <v>10529.1671054018</v>
       </c>
     </row>
     <row r="40">
@@ -1454,10 +1278,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10609.0087170946</v>
+        <v>10726.41613803297</v>
       </c>
       <c r="C40" t="n">
-        <v>10785.0702725783</v>
+        <v>11411.7084003794</v>
       </c>
     </row>
     <row r="41">
@@ -1465,10 +1289,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10974.64590647243</v>
+        <v>10293.33812605159</v>
       </c>
       <c r="C41" t="n">
-        <v>12089.43030316894</v>
+        <v>10875.53400374701</v>
       </c>
     </row>
     <row r="42">
@@ -1476,10 +1300,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10885.80933348753</v>
+        <v>10047.98704599473</v>
       </c>
       <c r="C42" t="n">
-        <v>12200.48709425503</v>
+        <v>10542.65262193235</v>
       </c>
     </row>
     <row r="43">
@@ -1487,10 +1311,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11073.51073718237</v>
+        <v>10277.89795597136</v>
       </c>
       <c r="C43" t="n">
-        <v>11399.74297126793</v>
+        <v>11168.85293774148</v>
       </c>
     </row>
     <row r="44">
@@ -1498,10 +1322,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10286.92485853902</v>
+        <v>9945.69622360113</v>
       </c>
       <c r="C44" t="n">
-        <v>10984.68604204213</v>
+        <v>10379.72620936386</v>
       </c>
     </row>
     <row r="45">
@@ -1509,10 +1333,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11002.23647266658</v>
+        <v>10139.98556345368</v>
       </c>
       <c r="C45" t="n">
-        <v>11637.3423687978</v>
+        <v>10591.55477244687</v>
       </c>
     </row>
     <row r="46">
@@ -1520,10 +1344,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10639.28760142079</v>
+        <v>9646.754972978031</v>
       </c>
       <c r="C46" t="n">
-        <v>10662.01969637171</v>
+        <v>10100.55129567249</v>
       </c>
     </row>
     <row r="47">
@@ -1531,10 +1355,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10651.49569160757</v>
+        <v>10187.01952923259</v>
       </c>
       <c r="C47" t="n">
-        <v>10943.74848493256</v>
+        <v>10817.08411785233</v>
       </c>
     </row>
     <row r="48">
@@ -1542,10 +1366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10713.2002760982</v>
+        <v>10544.49829347997</v>
       </c>
       <c r="C48" t="n">
-        <v>11285.75383044615</v>
+        <v>10459.54621300588</v>
       </c>
     </row>
     <row r="49">
@@ -1553,10 +1377,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10376.26179951959</v>
+        <v>10444.79262691322</v>
       </c>
       <c r="C49" t="n">
-        <v>10953.73038339707</v>
+        <v>10633.88600237203</v>
       </c>
     </row>
     <row r="50">
@@ -1564,10 +1388,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10425.25811836163</v>
+        <v>10109.10862625443</v>
       </c>
       <c r="C50" t="n">
-        <v>11096.66055701177</v>
+        <v>11125.9561976126</v>
       </c>
     </row>
     <row r="51">
@@ -1575,10 +1399,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10333.34325195574</v>
+        <v>10648.17185207631</v>
       </c>
       <c r="C51" t="n">
-        <v>10829.87131364724</v>
+        <v>11121.79704589514</v>
       </c>
     </row>
   </sheetData>
@@ -1617,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>86429.97290190939</v>
+        <v>86208.68402620955</v>
       </c>
       <c r="C2" t="n">
-        <v>84891.56353228628</v>
+        <v>86896.39018326311</v>
       </c>
     </row>
     <row r="3">
@@ -1628,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>90817.62008532131</v>
+        <v>93725.22597135532</v>
       </c>
       <c r="C3" t="n">
-        <v>92043.67307220456</v>
+        <v>94937.48537983252</v>
       </c>
     </row>
     <row r="4">
@@ -1639,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>117582.3480336723</v>
+        <v>98764.8302748555</v>
       </c>
       <c r="C4" t="n">
-        <v>120928.9929894768</v>
+        <v>95254.51159567217</v>
       </c>
     </row>
     <row r="5">
@@ -1650,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>94493.08832478929</v>
+        <v>100905.9195369552</v>
       </c>
       <c r="C5" t="n">
-        <v>98762.54407401834</v>
+        <v>103666.7859631858</v>
       </c>
     </row>
     <row r="6">
@@ -1661,10 +1485,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>101932.0171108876</v>
+        <v>136757.8694842918</v>
       </c>
       <c r="C6" t="n">
-        <v>99711.33666028237</v>
+        <v>142993.3480280315</v>
       </c>
     </row>
     <row r="7">
@@ -1672,10 +1496,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>136388.2798487719</v>
+        <v>191943.3033549188</v>
       </c>
       <c r="C7" t="n">
-        <v>139643.39268793</v>
+        <v>193802.1012091533</v>
       </c>
     </row>
     <row r="8">
@@ -1683,10 +1507,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113539.0145422931</v>
+        <v>135660.8498153954</v>
       </c>
       <c r="C8" t="n">
-        <v>113750.481971574</v>
+        <v>135834.8982012182</v>
       </c>
     </row>
     <row r="9">
@@ -1694,10 +1518,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>108904.0097604544</v>
+        <v>159336.6367693076</v>
       </c>
       <c r="C9" t="n">
-        <v>109141.060083447</v>
+        <v>161271.5394905148</v>
       </c>
     </row>
     <row r="10">
@@ -1705,10 +1529,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96795.08446958978</v>
+        <v>152780.040364329</v>
       </c>
       <c r="C10" t="n">
-        <v>95534.26719497322</v>
+        <v>153041.7967811474</v>
       </c>
     </row>
     <row r="11">
@@ -1716,10 +1540,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108100.9642649426</v>
+        <v>250882.2897739616</v>
       </c>
       <c r="C11" t="n">
-        <v>103666.4041159765</v>
+        <v>255641.357955089</v>
       </c>
     </row>
     <row r="12">
@@ -1727,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98535.27018622438</v>
+        <v>165675.9134919622</v>
       </c>
       <c r="C12" t="n">
-        <v>99076.59416402898</v>
+        <v>167234.9848107815</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40992.9073419445</v>
+        <v>47981.54356689447</v>
       </c>
       <c r="C2" t="n">
-        <v>42366.12808645854</v>
+        <v>47472.94931837667</v>
       </c>
     </row>
     <row r="3">
@@ -1780,10 +1604,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40328.00503610123</v>
+        <v>44952.82668218012</v>
       </c>
       <c r="C3" t="n">
-        <v>40266.92978112032</v>
+        <v>45731.88628188128</v>
       </c>
     </row>
     <row r="4">
@@ -1791,10 +1615,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50820.63859612417</v>
+        <v>42509.86079833462</v>
       </c>
       <c r="C4" t="n">
-        <v>51363.63548847713</v>
+        <v>42833.79677641409</v>
       </c>
     </row>
     <row r="5">
@@ -1802,10 +1626,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65173.95391938149</v>
+        <v>38052.001480301</v>
       </c>
       <c r="C5" t="n">
-        <v>65859.02212419272</v>
+        <v>38578.0320111233</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1637,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77417.05430081241</v>
+        <v>38264.06930882054</v>
       </c>
       <c r="C6" t="n">
-        <v>76038.10435606589</v>
+        <v>39601.29953334013</v>
       </c>
     </row>
     <row r="7">
@@ -1824,10 +1648,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57290.55785615681</v>
+        <v>48388.56785723698</v>
       </c>
       <c r="C7" t="n">
-        <v>58519.42172752819</v>
+        <v>49832.24330795443</v>
       </c>
     </row>
     <row r="8">
@@ -1835,10 +1659,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53990.49309771611</v>
+        <v>47682.23291445998</v>
       </c>
       <c r="C8" t="n">
-        <v>52663.0898575053</v>
+        <v>46893.96303797377</v>
       </c>
     </row>
     <row r="9">
@@ -1846,10 +1670,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>53185.07124008733</v>
+        <v>48350.06957060794</v>
       </c>
       <c r="C9" t="n">
-        <v>53478.86402316931</v>
+        <v>49102.96077115443</v>
       </c>
     </row>
     <row r="10">
@@ -1857,10 +1681,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67330.87640944983</v>
+        <v>48164.87667220783</v>
       </c>
       <c r="C10" t="n">
-        <v>68037.86299655552</v>
+        <v>46794.83153294713</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1692,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>57531.13787154851</v>
+        <v>42849.51400603356</v>
       </c>
       <c r="C11" t="n">
-        <v>56348.43189730779</v>
+        <v>43172.45009368841</v>
       </c>
     </row>
     <row r="12">
@@ -1879,10 +1703,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>61920.13400413357</v>
+        <v>40256.50011106774</v>
       </c>
       <c r="C12" t="n">
-        <v>63412.9958253526</v>
+        <v>42421.44995298771</v>
       </c>
     </row>
     <row r="13">
@@ -1890,10 +1714,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>61149.21535468793</v>
+        <v>43964.19922075693</v>
       </c>
       <c r="C13" t="n">
-        <v>60541.88454302677</v>
+        <v>44856.86443930605</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40275.12182181679</v>
+      </c>
+      <c r="C14" t="n">
+        <v>42209.52959920472</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>49442.20186680402</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49012.11590362713</v>
       </c>
     </row>
   </sheetData>
@@ -1932,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23160.35278020404</v>
+        <v>21283.47771346238</v>
       </c>
       <c r="C2" t="n">
-        <v>23006.00473017646</v>
+        <v>20775.34348881148</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18642.76882456535</v>
+        <v>18169.82698578578</v>
       </c>
       <c r="C3" t="n">
-        <v>18653.0545854134</v>
+        <v>18751.02643323631</v>
       </c>
     </row>
     <row r="4">
@@ -1954,10 +1800,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16980.77190264043</v>
+        <v>15845.83943192436</v>
       </c>
       <c r="C4" t="n">
-        <v>16940.2995473699</v>
+        <v>16155.6251852639</v>
       </c>
     </row>
     <row r="5">
@@ -1965,10 +1811,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15706.17788240899</v>
+        <v>15002.17128774895</v>
       </c>
       <c r="C5" t="n">
-        <v>16026.21490391566</v>
+        <v>15108.05166873178</v>
       </c>
     </row>
     <row r="6">
@@ -1976,10 +1822,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14983.30890334163</v>
+        <v>13721.410371722</v>
       </c>
       <c r="C6" t="n">
-        <v>15383.24790952311</v>
+        <v>14102.34397935812</v>
       </c>
     </row>
     <row r="7">
@@ -1987,10 +1833,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14049.56908492947</v>
+        <v>12818.66935002699</v>
       </c>
       <c r="C7" t="n">
-        <v>14351.28684220962</v>
+        <v>13302.06507080065</v>
       </c>
     </row>
     <row r="8">
@@ -1998,10 +1844,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13247.96400232506</v>
+        <v>12880.09940341365</v>
       </c>
       <c r="C8" t="n">
-        <v>13610.38563624073</v>
+        <v>13419.76451300957</v>
       </c>
     </row>
     <row r="9">
@@ -2009,10 +1855,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12374.69886419948</v>
+        <v>12153.07953608133</v>
       </c>
       <c r="C9" t="n">
-        <v>12849.40478826741</v>
+        <v>12828.80529076063</v>
       </c>
     </row>
     <row r="10">
@@ -2020,10 +1866,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11831.68609657802</v>
+        <v>11194.14488158037</v>
       </c>
       <c r="C10" t="n">
-        <v>12443.69504947795</v>
+        <v>11942.09785171979</v>
       </c>
     </row>
     <row r="11">
@@ -2031,10 +1877,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11766.77413607215</v>
+        <v>11620.46585715264</v>
       </c>
       <c r="C11" t="n">
-        <v>12283.75014343856</v>
+        <v>11998.44121542145</v>
       </c>
     </row>
     <row r="12">
@@ -2042,10 +1888,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11165.64611692677</v>
+        <v>10581.36919444252</v>
       </c>
       <c r="C12" t="n">
-        <v>11532.62614564401</v>
+        <v>11361.11712155166</v>
       </c>
     </row>
     <row r="13">
@@ -2053,10 +1899,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11120.57507038061</v>
+        <v>10102.48716069043</v>
       </c>
       <c r="C13" t="n">
-        <v>11583.61605164569</v>
+        <v>10904.28629053915</v>
       </c>
     </row>
     <row r="14">
@@ -2064,10 +1910,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10417.90653155928</v>
+        <v>9565.754433500268</v>
       </c>
       <c r="C14" t="n">
-        <v>10621.05115763477</v>
+        <v>10499.83395104136</v>
       </c>
     </row>
     <row r="15">
@@ -2075,10 +1921,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10422.45744704273</v>
+        <v>9391.76260806591</v>
       </c>
       <c r="C15" t="n">
-        <v>10890.3268330897</v>
+        <v>10184.79137915964</v>
       </c>
     </row>
     <row r="16">
@@ -2086,10 +1932,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9623.11135130494</v>
+        <v>9450.599103986537</v>
       </c>
       <c r="C16" t="n">
-        <v>10082.86736621593</v>
+        <v>10179.78693908049</v>
       </c>
     </row>
     <row r="17">
@@ -2097,10 +1943,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9455.756963534479</v>
+        <v>9402.757450661416</v>
       </c>
       <c r="C17" t="n">
-        <v>10020.85501286435</v>
+        <v>9919.071790687653</v>
       </c>
     </row>
     <row r="18">
@@ -2108,10 +1954,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9707.848947783346</v>
+        <v>8962.663566771134</v>
       </c>
       <c r="C18" t="n">
-        <v>10066.61259211936</v>
+        <v>9560.019930350427</v>
       </c>
     </row>
     <row r="19">
@@ -2119,10 +1965,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9291.332251321133</v>
+        <v>8836.669593632982</v>
       </c>
       <c r="C19" t="n">
-        <v>9912.720225983563</v>
+        <v>9782.948418029926</v>
       </c>
     </row>
     <row r="20">
@@ -2130,10 +1976,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8783.199299244503</v>
+        <v>8459.187778937781</v>
       </c>
       <c r="C20" t="n">
-        <v>9671.279031608296</v>
+        <v>9069.983840198001</v>
       </c>
     </row>
     <row r="21">
@@ -2141,10 +1987,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8709.112904263897</v>
+        <v>8349.765976909259</v>
       </c>
       <c r="C21" t="n">
-        <v>9422.889375645784</v>
+        <v>8885.160252696389</v>
       </c>
     </row>
     <row r="22">
@@ -2152,10 +1998,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8517.302887320222</v>
+        <v>8427.904039986503</v>
       </c>
       <c r="C22" t="n">
-        <v>9137.899782641942</v>
+        <v>9290.872663762273</v>
       </c>
     </row>
     <row r="23">
@@ -2163,10 +2009,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8282.025548985348</v>
+        <v>7773.486476179868</v>
       </c>
       <c r="C23" t="n">
-        <v>9119.658510618925</v>
+        <v>8540.131871173915</v>
       </c>
     </row>
     <row r="24">
@@ -2174,10 +2020,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8005.662248826447</v>
+        <v>7928.787041523928</v>
       </c>
       <c r="C24" t="n">
-        <v>8538.891791549748</v>
+        <v>8955.04283883363</v>
       </c>
     </row>
     <row r="25">
@@ -2185,10 +2031,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8034.620634640256</v>
+        <v>7639.625553848751</v>
       </c>
       <c r="C25" t="n">
-        <v>8510.806179287803</v>
+        <v>8256.099328339955</v>
       </c>
     </row>
     <row r="26">
@@ -2196,10 +2042,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7773.689176362285</v>
+        <v>7534.134823173425</v>
       </c>
       <c r="C26" t="n">
-        <v>8130.967858353084</v>
+        <v>8141.454826002279</v>
       </c>
     </row>
     <row r="27">
@@ -2207,10 +2053,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7773.122161628879</v>
+        <v>7273.320587316552</v>
       </c>
       <c r="C27" t="n">
-        <v>8777.814725397158</v>
+        <v>7940.414663774834</v>
       </c>
     </row>
     <row r="28">
@@ -2218,10 +2064,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7778.047464492938</v>
+        <v>7071.584465284069</v>
       </c>
       <c r="C28" t="n">
-        <v>8263.328774210033</v>
+        <v>7916.837457988691</v>
       </c>
     </row>
     <row r="29">
@@ -2229,10 +2075,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7273.622535450761</v>
+        <v>6863.010455108441</v>
       </c>
       <c r="C29" t="n">
-        <v>8008.765414691967</v>
+        <v>7693.607673562316</v>
       </c>
     </row>
     <row r="30">
@@ -2240,10 +2086,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6976.192698777227</v>
+        <v>6758.278020668308</v>
       </c>
       <c r="C30" t="n">
-        <v>7517.030157989961</v>
+        <v>7514.311474387677</v>
       </c>
     </row>
     <row r="31">
@@ -2251,10 +2097,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7275.071774870311</v>
+        <v>6932.430172417542</v>
       </c>
       <c r="C31" t="n">
-        <v>7811.464905133294</v>
+        <v>7714.89418518831</v>
       </c>
     </row>
     <row r="32">
@@ -2262,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6817.37428294491</v>
+        <v>6764.811172596134</v>
       </c>
       <c r="C32" t="n">
-        <v>7600.717107191721</v>
+        <v>7261.349792703956</v>
       </c>
     </row>
     <row r="33">
@@ -2273,10 +2119,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6833.824894420084</v>
+        <v>6617.882322859983</v>
       </c>
       <c r="C33" t="n">
-        <v>7582.694644748133</v>
+        <v>7177.995657943669</v>
       </c>
     </row>
     <row r="34">
@@ -2284,10 +2130,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7086.98409983959</v>
+        <v>6419.768425189839</v>
       </c>
       <c r="C34" t="n">
-        <v>7659.242797662509</v>
+        <v>7211.315297493352</v>
       </c>
     </row>
     <row r="35">
@@ -2295,10 +2141,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7184.954189160171</v>
+        <v>6429.364852218317</v>
       </c>
       <c r="C35" t="n">
-        <v>7920.509550588612</v>
+        <v>7083.449309292145</v>
       </c>
     </row>
     <row r="36">
@@ -2306,10 +2152,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6742.856950851458</v>
+        <v>6334.857122670614</v>
       </c>
       <c r="C36" t="n">
-        <v>7626.986362804538</v>
+        <v>7106.841790044806</v>
       </c>
     </row>
     <row r="37">
@@ -2317,10 +2163,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7100.417276558161</v>
+        <v>6414.112437547777</v>
       </c>
       <c r="C37" t="n">
-        <v>7587.36215647358</v>
+        <v>7378.591246308108</v>
       </c>
     </row>
     <row r="38">
@@ -2328,10 +2174,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6832.155004283039</v>
+        <v>6366.900203713474</v>
       </c>
       <c r="C38" t="n">
-        <v>7511.836108343405</v>
+        <v>7226.121994302131</v>
       </c>
     </row>
     <row r="39">
@@ -2339,10 +2185,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6527.464799435259</v>
+        <v>6104.548128233829</v>
       </c>
       <c r="C39" t="n">
-        <v>7298.886925124754</v>
+        <v>6720.71469506996</v>
       </c>
     </row>
     <row r="40">
@@ -2350,10 +2196,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6694.937961367568</v>
+        <v>6122.940461061064</v>
       </c>
       <c r="C40" t="n">
-        <v>7462.94333272432</v>
+        <v>6769.17628833565</v>
       </c>
     </row>
     <row r="41">
@@ -2361,10 +2207,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6622.289992683474</v>
+        <v>6144.78127239683</v>
       </c>
       <c r="C41" t="n">
-        <v>7337.510868394395</v>
+        <v>6858.684307505195</v>
       </c>
     </row>
     <row r="42">
@@ -2372,10 +2218,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6094.797906399361</v>
+        <v>6207.100169063634</v>
       </c>
       <c r="C42" t="n">
-        <v>6738.260204767085</v>
+        <v>6897.67743063789</v>
       </c>
     </row>
     <row r="43">
@@ -2383,10 +2229,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6413.466996576248</v>
+        <v>6240.853821224755</v>
       </c>
       <c r="C43" t="n">
-        <v>7031.61286336349</v>
+        <v>6631.682557723007</v>
       </c>
     </row>
     <row r="44">
@@ -2394,10 +2240,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6363.239656244201</v>
+        <v>6108.742455871858</v>
       </c>
       <c r="C44" t="n">
-        <v>7240.822790721261</v>
+        <v>6569.402772649321</v>
       </c>
     </row>
     <row r="45">
@@ -2405,10 +2251,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6056.227188348132</v>
+        <v>6109.327101731491</v>
       </c>
       <c r="C45" t="n">
-        <v>6851.204370646508</v>
+        <v>6708.861885406382</v>
       </c>
     </row>
     <row r="46">
@@ -2416,10 +2262,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6162.501606244444</v>
+        <v>5987.296611370193</v>
       </c>
       <c r="C46" t="n">
-        <v>6901.511115067896</v>
+        <v>6624.238788269001</v>
       </c>
     </row>
     <row r="47">
@@ -2427,10 +2273,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6160.852839055431</v>
+        <v>5842.51978351068</v>
       </c>
       <c r="C47" t="n">
-        <v>6816.368442683583</v>
+        <v>6468.179430009873</v>
       </c>
     </row>
     <row r="48">
@@ -2438,10 +2284,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5940.481015589777</v>
+        <v>5789.880181481782</v>
       </c>
       <c r="C48" t="n">
-        <v>6660.99528211439</v>
+        <v>6430.066462004323</v>
       </c>
     </row>
     <row r="49">
@@ -2449,10 +2295,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6167.673459897032</v>
+        <v>5822.902948520235</v>
       </c>
       <c r="C49" t="n">
-        <v>6827.13774704088</v>
+        <v>6715.754597842233</v>
       </c>
     </row>
     <row r="50">
@@ -2460,10 +2306,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6109.894243305676</v>
+        <v>5850.158279881945</v>
       </c>
       <c r="C50" t="n">
-        <v>6661.354290927822</v>
+        <v>6588.902320731279</v>
       </c>
     </row>
     <row r="51">
@@ -2471,10 +2317,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5904.638135415174</v>
+        <v>5733.070532790399</v>
       </c>
       <c r="C51" t="n">
-        <v>6873.095507036349</v>
+        <v>6449.733930878011</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte4/errors.xlsx
+++ b/Networks/Parte4/errors.xlsx
@@ -12,6 +12,8 @@
     <sheet name="Network3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Network4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Network5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Network6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Network7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44442.26103612454</v>
+        <v>43707.73526026897</v>
       </c>
       <c r="C2" t="n">
-        <v>45267.17728746407</v>
+        <v>43412.44672450804</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35196.7877563959</v>
+        <v>38142.10559216593</v>
       </c>
       <c r="C3" t="n">
-        <v>34960.1179956117</v>
+        <v>37205.63787425834</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +479,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35582.38396861688</v>
+        <v>33885.67772430833</v>
       </c>
       <c r="C4" t="n">
-        <v>35628.14114031639</v>
+        <v>32972.91947538093</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32251.45255378106</v>
+        <v>33260.72814563915</v>
       </c>
       <c r="C5" t="n">
-        <v>31912.67254712832</v>
+        <v>33712.26189113258</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29572.70928826216</v>
+        <v>27494.2164761525</v>
       </c>
       <c r="C6" t="n">
-        <v>29258.97491085083</v>
+        <v>27293.32300839459</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28767.04247438117</v>
+        <v>29077.70244644803</v>
       </c>
       <c r="C7" t="n">
-        <v>28351.15266634413</v>
+        <v>29226.29042664482</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +523,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27993.73076130836</v>
+        <v>26987.31449437993</v>
       </c>
       <c r="C8" t="n">
-        <v>27783.77311740517</v>
+        <v>27140.19855038718</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +534,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25802.12401212293</v>
+        <v>27143.11098877879</v>
       </c>
       <c r="C9" t="n">
-        <v>26034.36786145051</v>
+        <v>26555.53395788635</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +545,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26312.58595484761</v>
+        <v>24053.98250173147</v>
       </c>
       <c r="C10" t="n">
-        <v>25935.01252580972</v>
+        <v>24088.40689183577</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +556,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25589.13037767369</v>
+        <v>24835.23114113263</v>
       </c>
       <c r="C11" t="n">
-        <v>26163.58600441234</v>
+        <v>25232.33731832444</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +567,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24619.33971399062</v>
+        <v>25598.29660211064</v>
       </c>
       <c r="C12" t="n">
-        <v>24271.75548628618</v>
+        <v>25626.76097112351</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +578,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25255.47169537591</v>
+        <v>24327.93941306552</v>
       </c>
       <c r="C13" t="n">
-        <v>25235.15141172805</v>
+        <v>25019.39768692085</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +589,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24350.21412038056</v>
+        <v>24621.75539229492</v>
       </c>
       <c r="C14" t="n">
-        <v>25202.90502799169</v>
+        <v>25269.49402523772</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +600,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22009.63055504533</v>
+        <v>25162.96758063775</v>
       </c>
       <c r="C15" t="n">
-        <v>22069.11872568725</v>
+        <v>25544.3390467543</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +611,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22331.6927083661</v>
+        <v>25368.54942201251</v>
       </c>
       <c r="C16" t="n">
-        <v>21915.97016756082</v>
+        <v>24944.6500662233</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +622,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22085.40392644425</v>
+        <v>23227.20356099363</v>
       </c>
       <c r="C17" t="n">
-        <v>21716.81365051534</v>
+        <v>23131.35695723612</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22923.68176585489</v>
+        <v>23189.76563540231</v>
       </c>
       <c r="C18" t="n">
-        <v>22344.26899663419</v>
+        <v>23410.04564595459</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +644,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21773.09013013103</v>
+        <v>23099.70971668206</v>
       </c>
       <c r="C19" t="n">
-        <v>21998.0419444682</v>
+        <v>23417.38249506777</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +655,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23771.7454537904</v>
+        <v>23535.3628057557</v>
       </c>
       <c r="C20" t="n">
-        <v>23553.90737971442</v>
+        <v>23720.61265224624</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +666,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21934.31259165825</v>
+        <v>21988.08680179366</v>
       </c>
       <c r="C21" t="n">
-        <v>21320.66246809138</v>
+        <v>22546.30536268596</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +677,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22793.19751789935</v>
+        <v>23356.56063967784</v>
       </c>
       <c r="C22" t="n">
-        <v>22572.31384294219</v>
+        <v>24112.90704126205</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +688,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21705.31733598472</v>
+        <v>24087.08719642355</v>
       </c>
       <c r="C23" t="n">
-        <v>21307.65954006625</v>
+        <v>23493.96584380656</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +699,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23453.71741995923</v>
+        <v>21822.18014718957</v>
       </c>
       <c r="C24" t="n">
-        <v>23678.9669974977</v>
+        <v>21844.55889446421</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +710,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21187.04719140946</v>
+        <v>20839.34820370685</v>
       </c>
       <c r="C25" t="n">
-        <v>21020.69268596594</v>
+        <v>21517.28196797068</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +721,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21717.93004016373</v>
+        <v>21943.58091250495</v>
       </c>
       <c r="C26" t="n">
-        <v>21851.63004577408</v>
+        <v>22150.80290120289</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +732,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21832.75095870612</v>
+        <v>21391.75218300233</v>
       </c>
       <c r="C27" t="n">
-        <v>21669.47590460509</v>
+        <v>21003.51188768924</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +743,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23471.75656175873</v>
+        <v>22928.37911491423</v>
       </c>
       <c r="C28" t="n">
-        <v>22876.58879800684</v>
+        <v>22526.86291543769</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +754,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23422.24001818923</v>
+        <v>21917.99321364335</v>
       </c>
       <c r="C29" t="n">
-        <v>23086.82360023177</v>
+        <v>21621.10944659026</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +765,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22943.9287853301</v>
+        <v>22398.18993062171</v>
       </c>
       <c r="C30" t="n">
-        <v>22087.89765647786</v>
+        <v>23236.33724547135</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +776,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23477.67554226789</v>
+        <v>22203.62601886873</v>
       </c>
       <c r="C31" t="n">
-        <v>22767.69774137361</v>
+        <v>22052.26746509033</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +787,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22748.09653621902</v>
+        <v>21038.16525869062</v>
       </c>
       <c r="C32" t="n">
-        <v>22674.0968152483</v>
+        <v>21507.39028620526</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +798,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22606.35587338221</v>
+        <v>22064.23291887675</v>
       </c>
       <c r="C33" t="n">
-        <v>22184.7995984331</v>
+        <v>22568.49465879199</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +809,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23635.49593727252</v>
+        <v>20558.75234163404</v>
       </c>
       <c r="C34" t="n">
-        <v>23186.92107333843</v>
+        <v>21826.13146271455</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +820,186 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22508.72514066036</v>
+        <v>19698.84233023107</v>
       </c>
       <c r="C35" t="n">
-        <v>22172.23233231487</v>
+        <v>20023.49560443098</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19827.18048435652</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19702.17744259417</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>19930.95583539973</v>
+      </c>
+      <c r="C37" t="n">
+        <v>20315.99548463568</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19569.76186969786</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19970.22807690077</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>21084.13630353991</v>
+      </c>
+      <c r="C39" t="n">
+        <v>22064.72971962835</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20713.57163608815</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21788.89039497283</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20223.75986403244</v>
+      </c>
+      <c r="C41" t="n">
+        <v>20608.96804811317</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>19052.00284895373</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19808.39037991294</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19908.81018886208</v>
+      </c>
+      <c r="C43" t="n">
+        <v>19833.30557755133</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21143.76519078081</v>
+      </c>
+      <c r="C44" t="n">
+        <v>20860.69079855942</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20619.41972080952</v>
+      </c>
+      <c r="C45" t="n">
+        <v>21660.72898163522</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>18268.00198491523</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19633.65002240173</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>21064.5284579841</v>
+      </c>
+      <c r="C47" t="n">
+        <v>21182.6256970571</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19495.39679389655</v>
+      </c>
+      <c r="C48" t="n">
+        <v>18952.74904800191</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>19084.94847259817</v>
+      </c>
+      <c r="C49" t="n">
+        <v>19043.46025590152</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>19237.32336925359</v>
+      </c>
+      <c r="C50" t="n">
+        <v>19616.16668861616</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>18907.08565871805</v>
+      </c>
+      <c r="C51" t="n">
+        <v>19546.23127030006</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27694.66862464174</v>
+        <v>28051.082057745</v>
       </c>
       <c r="C2" t="n">
-        <v>27420.06794658712</v>
+        <v>27675.94046612962</v>
       </c>
     </row>
     <row r="3">
@@ -871,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22875.60123667129</v>
+        <v>25115.81488563447</v>
       </c>
       <c r="C3" t="n">
-        <v>22523.05018609215</v>
+        <v>25691.61674016641</v>
       </c>
     </row>
     <row r="4">
@@ -882,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22528.03601688437</v>
+        <v>21357.98424886971</v>
       </c>
       <c r="C4" t="n">
-        <v>22366.62555387081</v>
+        <v>21266.58792287802</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +1071,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19603.66810576889</v>
+        <v>21047.736976195</v>
       </c>
       <c r="C5" t="n">
-        <v>19322.13588979293</v>
+        <v>22013.91091754533</v>
       </c>
     </row>
     <row r="6">
@@ -904,10 +1082,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19947.43554310545</v>
+        <v>19420.99129145087</v>
       </c>
       <c r="C6" t="n">
-        <v>19582.24104105636</v>
+        <v>19600.67636510199</v>
       </c>
     </row>
     <row r="7">
@@ -915,10 +1093,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19230.90226071767</v>
+        <v>20320.54471683369</v>
       </c>
       <c r="C7" t="n">
-        <v>19330.06689489008</v>
+        <v>20346.19525402583</v>
       </c>
     </row>
     <row r="8">
@@ -926,10 +1104,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17881.66218984332</v>
+        <v>18167.78072253733</v>
       </c>
       <c r="C8" t="n">
-        <v>18101.91629903183</v>
+        <v>18542.7237138963</v>
       </c>
     </row>
     <row r="9">
@@ -937,10 +1115,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17288.4356985419</v>
+        <v>17099.88466489894</v>
       </c>
       <c r="C9" t="n">
-        <v>17360.73228041306</v>
+        <v>17673.70747708576</v>
       </c>
     </row>
     <row r="10">
@@ -948,10 +1126,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16413.74253484318</v>
+        <v>16101.88963067529</v>
       </c>
       <c r="C10" t="n">
-        <v>16317.85066488819</v>
+        <v>17200.83219789546</v>
       </c>
     </row>
     <row r="11">
@@ -959,10 +1137,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17205.41098047776</v>
+        <v>16090.05825125678</v>
       </c>
       <c r="C11" t="n">
-        <v>17600.89007425997</v>
+        <v>16340.05504679238</v>
       </c>
     </row>
     <row r="12">
@@ -970,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15768.39815626526</v>
+        <v>16439.78863375376</v>
       </c>
       <c r="C12" t="n">
-        <v>16308.32340716791</v>
+        <v>16828.66603020564</v>
       </c>
     </row>
     <row r="13">
@@ -981,10 +1159,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16004.54173184612</v>
+        <v>14600.83789931042</v>
       </c>
       <c r="C13" t="n">
-        <v>16469.54233116705</v>
+        <v>14630.31730148437</v>
       </c>
     </row>
     <row r="14">
@@ -992,10 +1170,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14358.42301679974</v>
+        <v>14455.61309072985</v>
       </c>
       <c r="C14" t="n">
-        <v>14969.48685526728</v>
+        <v>14135.36528537352</v>
       </c>
     </row>
     <row r="15">
@@ -1003,10 +1181,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13911.4766541188</v>
+        <v>14787.31545113597</v>
       </c>
       <c r="C15" t="n">
-        <v>14566.6770325295</v>
+        <v>16065.77974039586</v>
       </c>
     </row>
     <row r="16">
@@ -1014,10 +1192,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13610.85014918214</v>
+        <v>13782.03575033755</v>
       </c>
       <c r="C16" t="n">
-        <v>13403.3626896451</v>
+        <v>14226.7354993842</v>
       </c>
     </row>
     <row r="17">
@@ -1025,10 +1203,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13682.37814985882</v>
+        <v>13312.24488461605</v>
       </c>
       <c r="C17" t="n">
-        <v>13687.01663155975</v>
+        <v>13281.50266749407</v>
       </c>
     </row>
     <row r="18">
@@ -1036,10 +1214,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13431.66970630493</v>
+        <v>13394.62042865772</v>
       </c>
       <c r="C18" t="n">
-        <v>14134.81012272623</v>
+        <v>13965.5699928937</v>
       </c>
     </row>
     <row r="19">
@@ -1047,10 +1225,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13976.5364571682</v>
+        <v>12868.65888560272</v>
       </c>
       <c r="C19" t="n">
-        <v>14169.86144903134</v>
+        <v>13550.00768075644</v>
       </c>
     </row>
     <row r="20">
@@ -1058,10 +1236,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12823.95368422394</v>
+        <v>12314.19764794579</v>
       </c>
       <c r="C20" t="n">
-        <v>13307.59873389442</v>
+        <v>12740.01988195127</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1247,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12874.09285317645</v>
+        <v>13251.99842945122</v>
       </c>
       <c r="C21" t="n">
-        <v>13229.02548989478</v>
+        <v>13415.77606797956</v>
       </c>
     </row>
     <row r="22">
@@ -1080,10 +1258,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12309.69918542394</v>
+        <v>12502.88735563498</v>
       </c>
       <c r="C22" t="n">
-        <v>12541.19610862084</v>
+        <v>12654.28452118902</v>
       </c>
     </row>
     <row r="23">
@@ -1091,10 +1269,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12467.12448893573</v>
+        <v>12707.24931972555</v>
       </c>
       <c r="C23" t="n">
-        <v>13062.01673359705</v>
+        <v>13014.22869229601</v>
       </c>
     </row>
     <row r="24">
@@ -1102,10 +1280,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12779.24960809045</v>
+        <v>11941.53968742501</v>
       </c>
       <c r="C24" t="n">
-        <v>13780.04203262797</v>
+        <v>12076.82753014657</v>
       </c>
     </row>
     <row r="25">
@@ -1113,10 +1291,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12416.34816645865</v>
+        <v>12223.06400435157</v>
       </c>
       <c r="C25" t="n">
-        <v>13397.24985127592</v>
+        <v>13574.68715186123</v>
       </c>
     </row>
     <row r="26">
@@ -1124,10 +1302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12066.32754193305</v>
+        <v>12057.25250941931</v>
       </c>
       <c r="C26" t="n">
-        <v>12960.50506005981</v>
+        <v>12558.30317180986</v>
       </c>
     </row>
     <row r="27">
@@ -1135,10 +1313,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12030.44569854179</v>
+        <v>11657.47967231694</v>
       </c>
       <c r="C27" t="n">
-        <v>12754.38361464197</v>
+        <v>11586.68949682329</v>
       </c>
     </row>
     <row r="28">
@@ -1146,10 +1324,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11460.55269269712</v>
+        <v>11994.39892613917</v>
       </c>
       <c r="C28" t="n">
-        <v>12176.73451034108</v>
+        <v>12300.47002897898</v>
       </c>
     </row>
     <row r="29">
@@ -1157,10 +1335,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11684.78121094062</v>
+        <v>11511.93425848513</v>
       </c>
       <c r="C29" t="n">
-        <v>12297.28114133023</v>
+        <v>11908.62654945491</v>
       </c>
     </row>
     <row r="30">
@@ -1168,10 +1346,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11700.02373965249</v>
+        <v>11349.47118813792</v>
       </c>
       <c r="C30" t="n">
-        <v>12163.76846083841</v>
+        <v>11561.88647727983</v>
       </c>
     </row>
     <row r="31">
@@ -1179,10 +1357,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11283.95119621956</v>
+        <v>11271.2288557572</v>
       </c>
       <c r="C31" t="n">
-        <v>11301.2554299663</v>
+        <v>11532.13258167471</v>
       </c>
     </row>
     <row r="32">
@@ -1190,10 +1368,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11374.18694751905</v>
+        <v>11675.93800480134</v>
       </c>
       <c r="C32" t="n">
-        <v>11604.01093208916</v>
+        <v>12737.43541180543</v>
       </c>
     </row>
     <row r="33">
@@ -1201,10 +1379,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11793.06998578964</v>
+        <v>11137.50079307539</v>
       </c>
       <c r="C33" t="n">
-        <v>11967.46560678967</v>
+        <v>11959.90779302974</v>
       </c>
     </row>
     <row r="34">
@@ -1212,10 +1390,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11168.48621676159</v>
+        <v>10952.15048549907</v>
       </c>
       <c r="C34" t="n">
-        <v>11536.20183338816</v>
+        <v>11505.44582107638</v>
       </c>
     </row>
     <row r="35">
@@ -1223,10 +1401,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11185.75584922318</v>
+        <v>10698.81249791509</v>
       </c>
       <c r="C35" t="n">
-        <v>11438.31037772799</v>
+        <v>11221.40190884464</v>
       </c>
     </row>
     <row r="36">
@@ -1234,10 +1412,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11533.32268560962</v>
+        <v>10591.43166281999</v>
       </c>
       <c r="C36" t="n">
-        <v>11930.98080491661</v>
+        <v>11205.63128830085</v>
       </c>
     </row>
     <row r="37">
@@ -1245,10 +1423,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10844.1810716953</v>
+        <v>10147.33581380478</v>
       </c>
       <c r="C37" t="n">
-        <v>11520.99847029397</v>
+        <v>10759.76154168896</v>
       </c>
     </row>
     <row r="38">
@@ -1256,10 +1434,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10422.05856060353</v>
+        <v>10876.19099765318</v>
       </c>
       <c r="C38" t="n">
-        <v>11200.82959954494</v>
+        <v>11560.95511726514</v>
       </c>
     </row>
     <row r="39">
@@ -1267,10 +1445,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10278.3429077743</v>
+        <v>10884.21395747697</v>
       </c>
       <c r="C39" t="n">
-        <v>10529.1671054018</v>
+        <v>11612.28842634318</v>
       </c>
     </row>
     <row r="40">
@@ -1278,10 +1456,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10726.41613803297</v>
+        <v>10784.8106220598</v>
       </c>
       <c r="C40" t="n">
-        <v>11411.7084003794</v>
+        <v>11216.86427055767</v>
       </c>
     </row>
     <row r="41">
@@ -1289,10 +1467,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10293.33812605159</v>
+        <v>10388.85199198081</v>
       </c>
       <c r="C41" t="n">
-        <v>10875.53400374701</v>
+        <v>11023.55393697012</v>
       </c>
     </row>
     <row r="42">
@@ -1300,10 +1478,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10047.98704599473</v>
+        <v>9840.443318210124</v>
       </c>
       <c r="C42" t="n">
-        <v>10542.65262193235</v>
+        <v>10356.79348705865</v>
       </c>
     </row>
     <row r="43">
@@ -1311,10 +1489,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10277.89795597136</v>
+        <v>9853.61411767967</v>
       </c>
       <c r="C43" t="n">
-        <v>11168.85293774148</v>
+        <v>10214.88284410847</v>
       </c>
     </row>
     <row r="44">
@@ -1322,10 +1500,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9945.69622360113</v>
+        <v>10121.85198392665</v>
       </c>
       <c r="C44" t="n">
-        <v>10379.72620936386</v>
+        <v>10929.76802564513</v>
       </c>
     </row>
     <row r="45">
@@ -1333,10 +1511,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10139.98556345368</v>
+        <v>10256.85255647651</v>
       </c>
       <c r="C45" t="n">
-        <v>10591.55477244687</v>
+        <v>10760.39255954138</v>
       </c>
     </row>
     <row r="46">
@@ -1344,10 +1522,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9646.754972978031</v>
+        <v>9187.805546206921</v>
       </c>
       <c r="C46" t="n">
-        <v>10100.55129567249</v>
+        <v>9938.908206936874</v>
       </c>
     </row>
     <row r="47">
@@ -1355,10 +1533,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10187.01952923259</v>
+        <v>9346.16774799716</v>
       </c>
       <c r="C47" t="n">
-        <v>10817.08411785233</v>
+        <v>10300.00250610449</v>
       </c>
     </row>
     <row r="48">
@@ -1366,10 +1544,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10544.49829347997</v>
+        <v>9908.200484489202</v>
       </c>
       <c r="C48" t="n">
-        <v>10459.54621300588</v>
+        <v>10020.30179515114</v>
       </c>
     </row>
     <row r="49">
@@ -1377,10 +1555,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10444.79262691322</v>
+        <v>9436.008191287705</v>
       </c>
       <c r="C49" t="n">
-        <v>10633.88600237203</v>
+        <v>10603.88348865418</v>
       </c>
     </row>
     <row r="50">
@@ -1388,10 +1566,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10109.10862625443</v>
+        <v>9342.507533963884</v>
       </c>
       <c r="C50" t="n">
-        <v>11125.9561976126</v>
+        <v>9334.753344701228</v>
       </c>
     </row>
     <row r="51">
@@ -1399,10 +1577,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10648.17185207631</v>
+        <v>9301.447006507096</v>
       </c>
       <c r="C51" t="n">
-        <v>11121.79704589514</v>
+        <v>10591.04005078272</v>
       </c>
     </row>
   </sheetData>
@@ -1411,158 +1589,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>train_mse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>val_mse</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>86208.68402620955</v>
-      </c>
-      <c r="C2" t="n">
-        <v>86896.39018326311</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>93725.22597135532</v>
-      </c>
-      <c r="C3" t="n">
-        <v>94937.48537983252</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>98764.8302748555</v>
-      </c>
-      <c r="C4" t="n">
-        <v>95254.51159567217</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>100905.9195369552</v>
-      </c>
-      <c r="C5" t="n">
-        <v>103666.7859631858</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>136757.8694842918</v>
-      </c>
-      <c r="C6" t="n">
-        <v>142993.3480280315</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>191943.3033549188</v>
-      </c>
-      <c r="C7" t="n">
-        <v>193802.1012091533</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>135660.8498153954</v>
-      </c>
-      <c r="C8" t="n">
-        <v>135834.8982012182</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>159336.6367693076</v>
-      </c>
-      <c r="C9" t="n">
-        <v>161271.5394905148</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>152780.040364329</v>
-      </c>
-      <c r="C10" t="n">
-        <v>153041.7967811474</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>250882.2897739616</v>
-      </c>
-      <c r="C11" t="n">
-        <v>255641.357955089</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>165675.9134919622</v>
-      </c>
-      <c r="C12" t="n">
-        <v>167234.9848107815</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1593,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47981.54356689447</v>
+        <v>107374.0451241256</v>
       </c>
       <c r="C2" t="n">
-        <v>47472.94931837667</v>
+        <v>109542.4444346893</v>
       </c>
     </row>
     <row r="3">
@@ -1604,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>44952.82668218012</v>
+        <v>126446.8822331445</v>
       </c>
       <c r="C3" t="n">
-        <v>45731.88628188128</v>
+        <v>127349.50381066</v>
       </c>
     </row>
     <row r="4">
@@ -1615,10 +1641,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42509.86079833462</v>
+        <v>117748.1479731641</v>
       </c>
       <c r="C4" t="n">
-        <v>42833.79677641409</v>
+        <v>116142.3485454718</v>
       </c>
     </row>
     <row r="5">
@@ -1626,10 +1652,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38052.001480301</v>
+        <v>103461.9593187616</v>
       </c>
       <c r="C5" t="n">
-        <v>38578.0320111233</v>
+        <v>103435.005782384</v>
       </c>
     </row>
     <row r="6">
@@ -1637,10 +1663,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38264.06930882054</v>
+        <v>146079.942199652</v>
       </c>
       <c r="C6" t="n">
-        <v>39601.29953334013</v>
+        <v>147733.1825137883</v>
       </c>
     </row>
     <row r="7">
@@ -1648,10 +1674,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48388.56785723698</v>
+        <v>121909.7330049056</v>
       </c>
       <c r="C7" t="n">
-        <v>49832.24330795443</v>
+        <v>120551.6416774385</v>
       </c>
     </row>
     <row r="8">
@@ -1659,10 +1685,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>47682.23291445998</v>
+        <v>120412.68998973</v>
       </c>
       <c r="C8" t="n">
-        <v>46893.96303797377</v>
+        <v>120955.9925897832</v>
       </c>
     </row>
     <row r="9">
@@ -1670,10 +1696,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>48350.06957060794</v>
+        <v>121450.7913695714</v>
       </c>
       <c r="C9" t="n">
-        <v>49102.96077115443</v>
+        <v>120467.0376509707</v>
       </c>
     </row>
     <row r="10">
@@ -1681,10 +1707,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>48164.87667220783</v>
+        <v>157552.1499877879</v>
       </c>
       <c r="C10" t="n">
-        <v>46794.83153294713</v>
+        <v>157545.720101502</v>
       </c>
     </row>
     <row r="11">
@@ -1692,10 +1718,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>42849.51400603356</v>
+        <v>132429.2812240387</v>
       </c>
       <c r="C11" t="n">
-        <v>43172.45009368841</v>
+        <v>136779.4938594897</v>
       </c>
     </row>
     <row r="12">
@@ -1703,10 +1729,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40256.50011106774</v>
+        <v>151584.0227602393</v>
       </c>
       <c r="C12" t="n">
-        <v>42421.44995298771</v>
+        <v>156363.5071378131</v>
       </c>
     </row>
     <row r="13">
@@ -1714,10 +1740,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43964.19922075693</v>
+        <v>154400.0863273195</v>
       </c>
       <c r="C13" t="n">
-        <v>44856.86443930605</v>
+        <v>160266.3791366098</v>
       </c>
     </row>
     <row r="14">
@@ -1725,10 +1751,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40275.12182181679</v>
+        <v>137222.7957642604</v>
       </c>
       <c r="C14" t="n">
-        <v>42209.52959920472</v>
+        <v>135346.9630484381</v>
       </c>
     </row>
     <row r="15">
@@ -1736,10 +1762,217 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49442.20186680402</v>
+        <v>133547.4576875368</v>
       </c>
       <c r="C15" t="n">
-        <v>49012.11590362713</v>
+        <v>134824.7442695096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>train_mse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>val_mse</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>44955.22138771557</v>
+      </c>
+      <c r="C2" t="n">
+        <v>45823.7798047763</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>45416.52799179765</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44433.36801649741</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37708.64870151663</v>
+      </c>
+      <c r="C4" t="n">
+        <v>37440.20672007542</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43860.29382244188</v>
+      </c>
+      <c r="C5" t="n">
+        <v>42712.7793504017</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>46208.87890151385</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45789.44194513614</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34263.60853243008</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33095.52468183082</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>41826.62733216439</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42078.64040785908</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44579.88550650416</v>
+      </c>
+      <c r="C9" t="n">
+        <v>44428.0269562762</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>39016.98363495398</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38979.51553074826</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>53638.66540701642</v>
+      </c>
+      <c r="C11" t="n">
+        <v>55503.49903197303</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>46923.16128586017</v>
+      </c>
+      <c r="C12" t="n">
+        <v>49297.34418643318</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>46910.77259980529</v>
+      </c>
+      <c r="C13" t="n">
+        <v>47079.69554144519</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>41287.80628539478</v>
+      </c>
+      <c r="C14" t="n">
+        <v>42061.66454110573</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>47074.99728816124</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49531.93574424034</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>47080.86251344482</v>
+      </c>
+      <c r="C16" t="n">
+        <v>48580.92807671106</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50727.83527169553</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50472.81972308632</v>
       </c>
     </row>
   </sheetData>
@@ -1778,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21283.47771346238</v>
+        <v>20911.41382674012</v>
       </c>
       <c r="C2" t="n">
-        <v>20775.34348881148</v>
+        <v>20395.54979156597</v>
       </c>
     </row>
     <row r="3">
@@ -1789,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18169.82698578578</v>
+        <v>17772.19923199674</v>
       </c>
       <c r="C3" t="n">
-        <v>18751.02643323631</v>
+        <v>17872.42323559683</v>
       </c>
     </row>
     <row r="4">
@@ -1800,10 +2033,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15845.83943192436</v>
+        <v>16616.02404026824</v>
       </c>
       <c r="C4" t="n">
-        <v>16155.6251852639</v>
+        <v>17159.35422950203</v>
       </c>
     </row>
     <row r="5">
@@ -1811,10 +2044,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15002.17128774895</v>
+        <v>14636.58741410714</v>
       </c>
       <c r="C5" t="n">
-        <v>15108.05166873178</v>
+        <v>14718.13304772904</v>
       </c>
     </row>
     <row r="6">
@@ -1822,10 +2055,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13721.410371722</v>
+        <v>13964.51577686208</v>
       </c>
       <c r="C6" t="n">
-        <v>14102.34397935812</v>
+        <v>13967.37363826849</v>
       </c>
     </row>
     <row r="7">
@@ -1833,10 +2066,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12818.66935002699</v>
+        <v>13307.83692532089</v>
       </c>
       <c r="C7" t="n">
-        <v>13302.06507080065</v>
+        <v>14325.54902240511</v>
       </c>
     </row>
     <row r="8">
@@ -1844,10 +2077,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12880.09940341365</v>
+        <v>12953.27303686411</v>
       </c>
       <c r="C8" t="n">
-        <v>13419.76451300957</v>
+        <v>13234.34029456422</v>
       </c>
     </row>
     <row r="9">
@@ -1855,10 +2088,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12153.07953608133</v>
+        <v>12419.99614950642</v>
       </c>
       <c r="C9" t="n">
-        <v>12828.80529076063</v>
+        <v>12709.25250558301</v>
       </c>
     </row>
     <row r="10">
@@ -1866,10 +2099,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11194.14488158037</v>
+        <v>11598.9887966518</v>
       </c>
       <c r="C10" t="n">
-        <v>11942.09785171979</v>
+        <v>12062.18825920205</v>
       </c>
     </row>
     <row r="11">
@@ -1877,10 +2110,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11620.46585715264</v>
+        <v>11093.00596751518</v>
       </c>
       <c r="C11" t="n">
-        <v>11998.44121542145</v>
+        <v>11956.00915686451</v>
       </c>
     </row>
     <row r="12">
@@ -1888,10 +2121,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10581.36919444252</v>
+        <v>10599.21649688713</v>
       </c>
       <c r="C12" t="n">
-        <v>11361.11712155166</v>
+        <v>11104.82203908858</v>
       </c>
     </row>
     <row r="13">
@@ -1899,10 +2132,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10102.48716069043</v>
+        <v>10211.70313106428</v>
       </c>
       <c r="C13" t="n">
-        <v>10904.28629053915</v>
+        <v>10808.89244212835</v>
       </c>
     </row>
     <row r="14">
@@ -1910,10 +2143,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9565.754433500268</v>
+        <v>9936.897977054959</v>
       </c>
       <c r="C14" t="n">
-        <v>10499.83395104136</v>
+        <v>10755.61913958766</v>
       </c>
     </row>
     <row r="15">
@@ -1921,10 +2154,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9391.76260806591</v>
+        <v>9852.988624841921</v>
       </c>
       <c r="C15" t="n">
-        <v>10184.79137915964</v>
+        <v>10062.62370889439</v>
       </c>
     </row>
     <row r="16">
@@ -1932,10 +2165,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9450.599103986537</v>
+        <v>9227.716910306417</v>
       </c>
       <c r="C16" t="n">
-        <v>10179.78693908049</v>
+        <v>9700.349632135287</v>
       </c>
     </row>
     <row r="17">
@@ -1943,10 +2176,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9402.757450661416</v>
+        <v>8882.777458583476</v>
       </c>
       <c r="C17" t="n">
-        <v>9919.071790687653</v>
+        <v>9387.931994658338</v>
       </c>
     </row>
     <row r="18">
@@ -1954,10 +2187,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8962.663566771134</v>
+        <v>8441.713457220667</v>
       </c>
       <c r="C18" t="n">
-        <v>9560.019930350427</v>
+        <v>9114.655338088691</v>
       </c>
     </row>
     <row r="19">
@@ -1965,10 +2198,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8836.669593632982</v>
+        <v>8503.220730270052</v>
       </c>
       <c r="C19" t="n">
-        <v>9782.948418029926</v>
+        <v>9214.956050473482</v>
       </c>
     </row>
     <row r="20">
@@ -1976,10 +2209,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8459.187778937781</v>
+        <v>8598.504093838883</v>
       </c>
       <c r="C20" t="n">
-        <v>9069.983840198001</v>
+        <v>9559.688157657294</v>
       </c>
     </row>
     <row r="21">
@@ -1987,10 +2220,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8349.765976909259</v>
+        <v>8295.441164518727</v>
       </c>
       <c r="C21" t="n">
-        <v>8885.160252696389</v>
+        <v>9205.084172666755</v>
       </c>
     </row>
     <row r="22">
@@ -1998,10 +2231,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8427.904039986503</v>
+        <v>7921.116512710919</v>
       </c>
       <c r="C22" t="n">
-        <v>9290.872663762273</v>
+        <v>8622.286791192737</v>
       </c>
     </row>
     <row r="23">
@@ -2009,10 +2242,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7773.486476179868</v>
+        <v>7779.943654691438</v>
       </c>
       <c r="C23" t="n">
-        <v>8540.131871173915</v>
+        <v>8605.740477680925</v>
       </c>
     </row>
     <row r="24">
@@ -2020,10 +2253,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7928.787041523928</v>
+        <v>7518.730648082667</v>
       </c>
       <c r="C24" t="n">
-        <v>8955.04283883363</v>
+        <v>8097.290673187511</v>
       </c>
     </row>
     <row r="25">
@@ -2031,10 +2264,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7639.625553848751</v>
+        <v>7348.261188757196</v>
       </c>
       <c r="C25" t="n">
-        <v>8256.099328339955</v>
+        <v>8114.767578920711</v>
       </c>
     </row>
     <row r="26">
@@ -2042,10 +2275,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7534.134823173425</v>
+        <v>7216.963193276018</v>
       </c>
       <c r="C26" t="n">
-        <v>8141.454826002279</v>
+        <v>7874.66011559719</v>
       </c>
     </row>
     <row r="27">
@@ -2053,10 +2286,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7273.320587316552</v>
+        <v>7153.527577006536</v>
       </c>
       <c r="C27" t="n">
-        <v>7940.414663774834</v>
+        <v>7706.967560573113</v>
       </c>
     </row>
     <row r="28">
@@ -2064,10 +2297,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7071.584465284069</v>
+        <v>7059.282043217878</v>
       </c>
       <c r="C28" t="n">
-        <v>7916.837457988691</v>
+        <v>8000.946627571593</v>
       </c>
     </row>
     <row r="29">
@@ -2075,10 +2308,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6863.010455108441</v>
+        <v>7256.011012110689</v>
       </c>
       <c r="C29" t="n">
-        <v>7693.607673562316</v>
+        <v>7946.169328628045</v>
       </c>
     </row>
     <row r="30">
@@ -2086,10 +2319,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6758.278020668308</v>
+        <v>7087.654915061377</v>
       </c>
       <c r="C30" t="n">
-        <v>7514.311474387677</v>
+        <v>7683.230877910885</v>
       </c>
     </row>
     <row r="31">
@@ -2097,10 +2330,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6932.430172417542</v>
+        <v>6886.863466596812</v>
       </c>
       <c r="C31" t="n">
-        <v>7714.89418518831</v>
+        <v>7896.572281311509</v>
       </c>
     </row>
     <row r="32">
@@ -2108,10 +2341,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6764.811172596134</v>
+        <v>6703.372092765869</v>
       </c>
       <c r="C32" t="n">
-        <v>7261.349792703956</v>
+        <v>7523.110214067733</v>
       </c>
     </row>
     <row r="33">
@@ -2119,10 +2352,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6617.882322859983</v>
+        <v>6942.581658377335</v>
       </c>
       <c r="C33" t="n">
-        <v>7177.995657943669</v>
+        <v>7710.34010262751</v>
       </c>
     </row>
     <row r="34">
@@ -2130,10 +2363,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6419.768425189839</v>
+        <v>6551.408306279189</v>
       </c>
       <c r="C34" t="n">
-        <v>7211.315297493352</v>
+        <v>7419.183068485573</v>
       </c>
     </row>
     <row r="35">
@@ -2141,10 +2374,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6429.364852218317</v>
+        <v>6093.624419092183</v>
       </c>
       <c r="C35" t="n">
-        <v>7083.449309292145</v>
+        <v>7242.145310820601</v>
       </c>
     </row>
     <row r="36">
@@ -2152,10 +2385,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6334.857122670614</v>
+        <v>6170.023400443632</v>
       </c>
       <c r="C36" t="n">
-        <v>7106.841790044806</v>
+        <v>7148.046952387969</v>
       </c>
     </row>
     <row r="37">
@@ -2163,10 +2396,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6414.112437547777</v>
+        <v>6367.992597817418</v>
       </c>
       <c r="C37" t="n">
-        <v>7378.591246308108</v>
+        <v>7056.577871488923</v>
       </c>
     </row>
     <row r="38">
@@ -2174,10 +2407,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6366.900203713474</v>
+        <v>6190.638315078387</v>
       </c>
       <c r="C38" t="n">
-        <v>7226.121994302131</v>
+        <v>6887.581670485553</v>
       </c>
     </row>
     <row r="39">
@@ -2185,10 +2418,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6104.548128233829</v>
+        <v>6070.605784873711</v>
       </c>
       <c r="C39" t="n">
-        <v>6720.71469506996</v>
+        <v>6920.083788212401</v>
       </c>
     </row>
     <row r="40">
@@ -2196,10 +2429,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6122.940461061064</v>
+        <v>6011.444119996893</v>
       </c>
       <c r="C40" t="n">
-        <v>6769.17628833565</v>
+        <v>6945.340818292993</v>
       </c>
     </row>
     <row r="41">
@@ -2207,10 +2440,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6144.78127239683</v>
+        <v>5854.380939765822</v>
       </c>
       <c r="C41" t="n">
-        <v>6858.684307505195</v>
+        <v>6955.238347176972</v>
       </c>
     </row>
     <row r="42">
@@ -2218,10 +2451,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6207.100169063634</v>
+        <v>5815.454408199022</v>
       </c>
       <c r="C42" t="n">
-        <v>6897.67743063789</v>
+        <v>6515.024222539</v>
       </c>
     </row>
     <row r="43">
@@ -2229,10 +2462,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6240.853821224755</v>
+        <v>5758.246821993381</v>
       </c>
       <c r="C43" t="n">
-        <v>6631.682557723007</v>
+        <v>6838.418527530488</v>
       </c>
     </row>
     <row r="44">
@@ -2240,10 +2473,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6108.742455871858</v>
+        <v>5831.900511900045</v>
       </c>
       <c r="C44" t="n">
-        <v>6569.402772649321</v>
+        <v>6968.129764232785</v>
       </c>
     </row>
     <row r="45">
@@ -2251,10 +2484,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6109.327101731491</v>
+        <v>5906.113393796821</v>
       </c>
       <c r="C45" t="n">
-        <v>6708.861885406382</v>
+        <v>6569.817572304992</v>
       </c>
     </row>
     <row r="46">
@@ -2262,10 +2495,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5987.296611370193</v>
+        <v>5816.142742076325</v>
       </c>
       <c r="C46" t="n">
-        <v>6624.238788269001</v>
+        <v>6748.237865262982</v>
       </c>
     </row>
     <row r="47">
@@ -2273,10 +2506,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5842.51978351068</v>
+        <v>5596.813010591495</v>
       </c>
       <c r="C47" t="n">
-        <v>6468.179430009873</v>
+        <v>6456.858336916882</v>
       </c>
     </row>
     <row r="48">
@@ -2284,10 +2517,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5789.880181481782</v>
+        <v>5580.270357281604</v>
       </c>
       <c r="C48" t="n">
-        <v>6430.066462004323</v>
+        <v>6351.016012203921</v>
       </c>
     </row>
     <row r="49">
@@ -2295,10 +2528,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5822.902948520235</v>
+        <v>5484.384556475906</v>
       </c>
       <c r="C49" t="n">
-        <v>6715.754597842233</v>
+        <v>6184.01533712199</v>
       </c>
     </row>
     <row r="50">
@@ -2306,10 +2539,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5850.158279881945</v>
+        <v>5516.874810724517</v>
       </c>
       <c r="C50" t="n">
-        <v>6588.902320731279</v>
+        <v>6357.412494610005</v>
       </c>
     </row>
     <row r="51">
@@ -2317,10 +2550,1172 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5733.070532790399</v>
+        <v>5370.835447191153</v>
       </c>
       <c r="C51" t="n">
-        <v>6449.733930878011</v>
+        <v>6094.777005726964</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>train_mse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>val_mse</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18484.76867151483</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18116.7673796016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15224.62196958812</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15232.65859124256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13487.98972528658</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13529.25757376887</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12696.5181161675</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13004.23144674804</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11560.29063411207</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12017.31165036912</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10804.88579855891</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11386.81914981852</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10077.02808586181</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10715.71053281583</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9541.522726567338</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10038.75796407864</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9024.13047730232</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9400.883863241896</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8735.676949483524</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9378.443337250601</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8371.076927895174</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9030.721863640718</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7888.711817970147</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8589.179843398679</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7678.637555431572</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8462.738821533687</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7274.905497742969</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8008.455554231488</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7115.388415405564</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7786.319957933228</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6717.231619786844</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7652.544947514975</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6521.126445015509</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7730.241036112553</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6392.891833757104</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7253.516906548357</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6183.059963723046</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6988.604688017816</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5950.595641151422</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6970.615734412423</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5783.838110440611</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6568.839313330321</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5581.481381873959</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6621.010602615684</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5496.958432403489</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6359.262582980837</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5215.404525027328</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6180.71594727385</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5150.246151478819</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6050.208515530189</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5024.555808798522</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5896.903823122969</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4897.708182336818</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5816.204245739577</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4946.779196540582</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5703.120689956181</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4687.422091996559</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5551.962302327245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4693.889977677044</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5436.518922586727</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4671.599911027965</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5400.81709683585</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4587.785525821522</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5406.844400920699</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4458.68677680069</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5245.58092246069</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4413.08609064728</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5296.839309598139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4429.583695726108</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5266.473734937724</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4317.898953378321</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5133.022419724618</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4263.805782063871</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5093.274984951836</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4130.628249465107</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4969.572051769851</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4017.438621036167</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4915.160696424262</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4026.794775218629</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4865.780751836819</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4065.054906641236</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4824.573111364105</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3946.06512963324</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4885.535222813814</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3931.107142530735</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4909.035209932808</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3907.99536796034</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4785.585648476796</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3807.103865454599</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4674.605501184722</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3816.502169264323</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4746.469906086058</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3732.643172331018</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4676.155821357655</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3687.823985483371</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4643.776970791054</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3665.556468275459</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4649.470965730316</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3615.55969746131</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4528.232975671843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>train_mse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>val_mse</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15846.50891406214</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15449.60364924881</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13040.23377625404</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12937.30242705343</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11344.09171622007</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11607.03004398673</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10234.43563318244</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10683.08558373821</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9246.05976587069</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9946.306194909463</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8299.215418654481</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9018.536860152262</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7663.683531674878</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8443.588170430747</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7391.914196446961</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8360.573600345271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6864.292534092254</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7737.584457928434</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6685.61114038606</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7432.080522639299</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6060.488817339333</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6939.84851647357</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5815.017388164931</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6663.071953013628</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5548.735720568369</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6352.21396198699</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5272.158145477152</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6095.355288531652</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5160.390785706326</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6174.450724257467</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4998.210893585241</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5917.070551862213</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4927.03256388347</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5810.242534046006</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4682.666285303168</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5536.35364947252</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4536.074759889808</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5411.509909169261</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4459.327275514829</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5367.281098176499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4313.236075643335</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5227.202879639564</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4275.617939913885</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5132.485342964053</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4117.622463952805</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5024.348271055233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4045.049804106251</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4922.03459256147</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3974.530504822916</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4871.321839211774</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3816.953205744484</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4723.230364281209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3805.007883525529</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4695.295704429271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3756.385032747099</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4630.627025549396</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3748.780351055571</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4651.733851540967</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3626.148897387026</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4502.938032880588</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3572.964050513823</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4484.174733104532</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3587.518839153802</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4567.662177696085</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3506.381479339539</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4394.566921032269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3388.415399031499</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4277.017167333897</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3352.073260607209</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4182.40024346582</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3219.134899696545</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4137.765227471241</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3170.159321760798</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4061.318134309121</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3202.351501053633</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4023.760756960559</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3098.647637468925</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3980.037562179152</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3040.01239825459</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3968.110101385616</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2997.583445586046</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3876.51168628536</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2961.539806982846</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3876.152655896076</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2952.377183857618</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3788.18559780314</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2858.958804100899</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3730.527283899307</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2869.209901635811</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3711.013768439654</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2823.693677484895</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3707.14745607201</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2732.289662310608</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3580.665095321508</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2784.945142190826</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3560.389362469573</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2670.918786485076</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3560.418404670108</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2625.584056168638</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3540.846498930835</v>
       </c>
     </row>
   </sheetData>
